--- a/news_data/2021_12.xlsx
+++ b/news_data/2021_12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,36 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>중화권 한국 관광지 1순위는 '제주도' 명불허전</t>
+  </si>
+  <si>
+    <t>제주도, 무슬림 관광객들에게 손짓…가이드북도 발간</t>
+  </si>
+  <si>
+    <t>제주도 '최우수 공연관광지' 서귀포 치유의 숲 선정</t>
+  </si>
+  <si>
+    <t>틸론 등 7개사, 제주도 관광 메타버스 실현한다</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈관광 재개 대비해 해외 마케팅 기지개</t>
+  </si>
+  <si>
+    <t>제주도 탐나오, 영세 관광사업체의 든든한 지원군 역할 톡톡</t>
+  </si>
+  <si>
+    <t>오영희 제주도의원 '제주관광미래성장포럼' 토론회 개최</t>
+  </si>
+  <si>
+    <t>제주도 규모 4.9 역대급 지진...관광객들 긴급대피, 여진에 촉각</t>
+  </si>
+  <si>
+    <t>제주도, 대만·일본 크루즈 관광객 유치 재개 시동</t>
+  </si>
+  <si>
+    <t>제주도-관광공사, 10일부터 아시아 웰니스 관광 포럼 개최</t>
+  </si>
+  <si>
     <t>제주도, 올해 하반기 우수관광사업체 드림고속 등 12개 업체 지정</t>
   </si>
   <si>
@@ -37,46 +67,73 @@
     <t>제주도, 한국관광 데이터랩 우수 활용사례 공모전 '최우수상'</t>
   </si>
   <si>
+    <t>한국관광통역안내사협회, 제주도 관광통역안내사 대상 자연생태 관광교육 진행</t>
+  </si>
+  <si>
     <t>제주도관광협회, 제주관광 권역별 현장홍보 강화</t>
   </si>
   <si>
-    <t>한국관광통역안내사협회, 제주도 관광통역안내사 대상 자연생태 관광교육 진행</t>
-  </si>
-  <si>
     <t>제주도의회, 위드코로나로 변화하는 관광시장에 맞는 예산 편성 주문</t>
   </si>
   <si>
+    <t>[대구 코로나 현황] 신규 확진자 160명… 제주도 단체관광 등</t>
+  </si>
+  <si>
     <t>제주도, 올 하반기 우수관광사업체 지정</t>
   </si>
   <si>
-    <t>[대구 코로나 현황] 신규 확진자 160명… 제주도 단체관광 등</t>
-  </si>
-  <si>
-    <t>제주도 관광통역안내사 자연생태 관광교육 실시 주메뉴 바로가기 본문 바로가기 2022.10.04 (화) 카카오채널 RSS 모바일보기 흐림서울 17.1℃ 구름많음제주 23.9℃ 구름많음고산 22.4℃ 구름많음성산 23.1℃ 흐림서귀포 24.9℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 종합이슈 홈 종합이슈 제주도 관광통역안내사 자연생태 관광교육 실시 신혜정 기자 shin@jejutwn.com 등록 2021.12.10 16:20:14 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 [제주교통복지신문 신혜정 기자] 한국관광통역안내사협회(KOTGA)는 제주지역에서 전문적으로 활동 중인 관광통역안내사 18명을 대상으로, '스토리텔링 기반을 둔 관광지 해설기법 양성'을 위해, 지난달 22~24일까지 자연생태관광을 주제로 양성교육을 실시했다고 밝혔다. 이번 양성교육에 참여한 관광통역안내사들은 '경북 예천(회룡포, 용문사)', '경북 문경(고모산성, 문경새재 도립공원, 오픈세트장, 단산 모노레일)', '충북 제천(옥순봉 출렁다리, 충주호)', '강원 영월(관풍헌, 청령포, 장릉, 한반도지형)”을 방문하여 현장실습 및 체험교육 등을 통해, 관광통역안내사로서 자질향상과 더불어 더욱 성장할 수 있는 계기가 됐다. 코로나-19를 대비하여, 관광통역안내사들의 마스크 착용과 체온 검사, 손 소독제 사용 및 사회적 거리두기 등을 실천하여, 안전한 관광여행을 위한 방역지침을 철저히 준수하며 진행됐다. 한국관광통역안내사협회(KOTGA)는 문화체육관광부 인가 비영리법인으로, 관광통역안내사는 관광진흥법에 근거하여 우리나라 역사와 문화를 올바르게 알리고 나누며, 세계와 소통하는 대한민국의 실질적인 민간외교관이다. 제주교통복지신문, TW News 신혜정 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 [TW포토] 제주관광대 탐모라볼빛축제…장덕철 열창 4 3년 만에 개최되는 제3회 서귀포 은갈치 축제 9월 30일 개최 5 제주시, 10월 시정시책공유 간부회의 개최 6 2022 청춘마이크 제주 뮤직 페스티발 9월 30일 개최 7 [TW포토] 제주관광대 탐모라볼빛축제 성황리에 열려 8 서귀포시 서부보건소, 제주도 최초 선정 '생애 초기 건강관리사업' 운영 9 서귀포시, 민원업무 담당자 직무교육 실시 10 서귀포시, 美 풀러턴(Fullerton)市와 함께한‘창업 및 수출지원 세미나’성료 실시간 뉴스 2022-10-04_TUE [TW포토] 제주 한라산 일출 풍경, '핑크빛 하늘' 06:40 제주 오션갤러리, 시행사 보유분 특별분양 03:58 2022-10-03_MON 제주도, 김희현 정무부지사, 국학기공대회 참석 격려 16:39 제주도, 무오법정사 항일항쟁 104주년…“숭고한 정신 이어 새로운 미래 준비” 16:38 제주도의회 김황국 의원, 스포츠관광 정책 발전 기여 공로상 수상 16:31 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 04일 11시 19분 최상단으로</t>
-  </si>
-  <si>
-    <t>제민일보·제주도 주최 2021 제주관광대상 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제민일보·제주도 주최 2021 제주관광대상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제민일보·제주도 주최 2021 제주관광대상 기자명 김봉철 기자 입력 2021.12.05 17:16 수정 2021.12.05 17:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 종합대상 '휘닉스중앙제주㈜' 제민일보ㆍ제주도 주최 2021 제주관광대상 시상식이 지난 3일 제민일보사 1층 대강당에서 열렸다. 이진서 기자 ▶관광지업 ㈜메이즈랜드 ▶숙박업 블라제리조트 ▶운수업 ㈜부민고속관광 ▶여행업 ㈜제주토박이 ▶여행안내사상 고완정·김애순 ▶공로상 고동현·한정혜 ▶관광자원화기여상 ㈜상효원 ▶특별상 김미정 제주관광대상 심사위원회(위원장 안창남, 이하 심사위원회)는 최근 제주관광 전 분야에 걸쳐 '2021 제주관광대상' 심사를 진행한 결과 종합 대상에 섭지코지 내에서 휴양콘도미니엄과 미술관, 카페 등을 운영하며 섭지코지를 명소로 만든 휘닉스중앙제주㈜(대표 이윤규)를 선정했다. 제주관광대상은 제민일보사·제주특별자치도 공동주최, 문화체육관광부 후원으로 지난 2005년부터 시상하고 있다. 제주관광산업의 건전한 기반 구축과 안정적 성장을 위한 지지대 역할을 해오며 지역의 생명산업인 관광산업에 대한 관심과 격려를 꾸준히 도민사회에 전파했다. 심사위원회는 관광지업 부문 대상에 ㈜메이즈랜드(대표 이동한)를, 숙박업 부문에 블라제리조트(대표 김명식)를 각각 선정했다. 또 운수업 부문 대상은 ㈜부민고속관광(대표 최창우)이, 여행업 부문 대상은 ㈜제주토박이(대표 하승우)에게 각각 돌아갔다. 이와 함께 △여행안내사상=고완정(국내), 김애순(국외) △공로상=고동현(제주시 관광진흥과), 한정혜(서귀포시 관광진흥과) △관광자원화기여상=㈜상효원(대표 이재영) △특별상 김미정(제주도문화관광해설사협회) 등이 수상자로 결정됐다. 시상식은 3일 제민일보사 1층 대강당에서 제민일보 양치석 대표이사 사장과 양창영 상무이사, 김승배 도 관광국장, 고은숙 제주관광공사 사장, 부동석 제주도관광협회장 등이 참석한 가운데 진행됐다. 이날 구만섭 제주도지사 권한대행을 대신해 참석한 김승배 관광국장은 "코로나19 사태를 극복해 나가는 과정에서 관광업계가 어려움을 딛고 빛나는 성과를 이뤄 모범을 보인 모든 수상자 분들께 축하와 감사의 인사를 드린다"며 "제주도는 국내·외 관광객들이 제주를 다시 찾고 관광업계가 인바운드·아웃바운드 관광 모두 회복할 수 있도록 지원하는데 최대한의 노력을 아끼지 않겠다"고 말했다. 김봉철 기자 김봉철 기자 bckim@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>오영희 제주도의원이 관광해설사 근무복을 바꾸라고 한 까닭 닫기 전체기사 최신뉴스 GAM 라씨로 영상 영상 포토 포토 정치 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사회 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 글로벌 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 중국 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 산업 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 증권·금융 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 부동산 정책 건설 분양 수익형부동산 전국 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화·연예 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 스포츠 해외스포츠 국내스포츠 축구 야구 골프 오피니언 오피니언 회사소개 CEO 인사말 뉴스핌은 주요상품 가치·철학 발자취 조직도 윤리강령 찾아오시는 길 사업·광고문의 사업제휴 광고문의 유료서비스 유료안내 결제서비스 안내 환불정책 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일주소수집거부 저작권규약 고충처리제도 수용자권익보호위원회 회원 로그인 아이디·비밀번호찾기 회원가입 로그인 뉴스핌제보 닫기 검색 패밀리 사이트 뉴스핌통신 PLUS 월간 ANDA 中文 안다쇼핑 ANDA 뉴스 닫기 전체메뉴 영상 포토 정치 경제 사회 글로벌 중국 산업 증권·금융 부동산 전국 문화·연예 스포츠 오피니언 #GAM #라씨로 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 정책 건설 분양 수익형부동산 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 해외스포츠 국내스포츠 축구 야구 골프 홈 전국 지자체 속보 [국감] 'K-택소노미, 국제기준보다 후퇴' 지적…한화진 장관 "EU가 국제기준 아냐"[국감] 기재부 등 122개 공공기관, 중증장애인생산품 우선구매 1% 미만 그쳐[국감] 영빈관 비선실세 의혹에 추경호 "충분한 실무협의 거쳐" [국감] 수입산 농산물 1초만에 국내산 둔갑…'라벨 바꿔치기' 5년간 297억 적발[종합]'채널A기자 명예훼손' 최강욱 의원 1심서 무죄..."비방 목적 없어"[국감] 국세청, 10년간 역외탈세 부과세액 12조원 넘어…누적 징수율 86.04%35년 된 강변 동서울터미널, 40층 광역교통 복합공간 탈바꿈휴대폰·내비게이션으로 서울시내 교차로 신호 확인한다폭스바겐, 신형 티구안 출시 기념…'한정판 토르' 증정[국감] 통일부, 장관급 기관 업무평가 꼴찌…정우택 "개선조치 나서야"현대비앤지스틸, 또 근로자 사망사고…고용부, 중대재해법 위반 조사 착수한국콜마, 서울시와 '글로벌 뷰티 중심 도시' 만든다SK바이오사이언스, 신성장 전략 실행 위한 신규 임원 영입코스맥스그룹, 2022년 하반기 신입사원 공개 채용서울 확진 3086명, 사망자2명美태평양함대 '일본해' 대신 '동해'·'한반도 동쪽 수역'으로 표기LG전자, 아프리카서 올레드TV 포장박스 재활용 전시중기중앙회 서울지역본부, '서울 노란우산 고객권익보호위원회' 설치·운영자율주행 기업과 만난 원희룡 "사업비 지원 강화, 테스트베드·C-ITS 확대"트레이더스 "확 바뀐다"...간판 바꾸고 유료 멤버십 도입 더보기 오영희 제주도의원이 관광해설사 근무복을 바꾸라고 한 까닭 기사입력 : 2021년12월01일 19:30 최종수정 : 2021년12월01일 19:30 카카오톡 페이스북 트위터 카카오스토리 밴드 가 + 가 - 프린트 [제주=뉴스핌] 변준성 기자 = 현재 제주도 해설사들은 대부분 문화관광해설사와 세계자연유산해설사 등 717명이 자원봉사자 신분으로 활동 중에 있다. 해설사들은 제주관광의 얼굴로 해당 관광지에서 관광객들을 맞이하고 있지만 편리성을 이유로 대부분 아웃도어룩이나 체크무늬 자켓을 입고 해설을 하고 있다. 제주도의회의 정례회에서 이같은 복장에 대한 지적이 나왔다. '제400회 제주특별자치도의회 정례회 상임위'에서 발언하는 오영희 의원[사진=제주도의회] 2021.12.01 tcnews@newspim.com 제주특별자치도의회 문화관광체육위원회 오영희 의원(국민의 힘, 비례대표)은 '제400회 제주특별자치도의회 정례회 상임위 제3차 회의'에서 도 관광국과 세계유산본부 상대로 '해설사 운영에서 해설사들의 아웃도어룩이 제주의 상징성 있는 복장인가?'라고 질의 하고 해설사의 복장은 제주관광이미지라며 제주정체성을 나타낼 수 있는 근무장으로 바꿔야 한다"고 주장했다. 오 의원은 "타 시도의 해설사들은 그 지역의 특색을 살린 의복이나 정갈한 계량한복으로 입고 해설을 하고 있다"면서 "이런 해설사의 근무복을 위해 피복비를 지원해주고 있다"고 밝혔다. 그러면서 "제주도 문화관광해설사의 경우 활동비 교육비 등 2021년도 11억7300만원 지원되었고, 2022년도도 같은 수준인 11억6400만원이 편성되어 처우개선 향상도 필요한 실정이다"이라고 강조했다. 오 의원은 특히 "근무복 예산도 1900만원이 편성되어 예산이 남았지만, 해설사의 근무복에 대한 고려도 하지 않았고 그 중요성을 간과하고 있다"면서 "문화관광해설상 양성현황에서도 2017년 41명 양성 배출하고 2018년부터 2021년 현재까지 양성교육 없이 단 한명도 배출되지 않아 해설사 운영에서 처우와 양성교육에 문제를 드러내고 있다"고 주장했다. 제주도 하면 오름과 바다, 현무암의 검은 돌, 맑은 공기와 파란하늘이 제주를 연상시키며 이런 제주적인 것들이 제주 정체성이 담긴 민속과 연결되어 제주 브랜드로서 관광객에게 다가가게 된다. 이런 제주의 아름다운 것들을 소개하면서 아웃도어룩의 브랜드를 강조하고 있고 제주를 상징하는 옷차림은 찾아볼 수 없는 실정이다. 오영희 의원은 "제주관광 이미지 개선을 위해서는 해설사들의 양성교육과 근무복부터 바꿔야 한다. 관광객들에게 제주를 소개하면서 제주 정체성을 나타낼 수 있는 복장은 고민하고 있지 않다"면서 "해설사들의 근무복은 관광지별 특색을 고려하여 제주의 정체성과 이미지를 제시할 수 있어야 한다"고 도 관광국장과 세계유산본부장을 상대로 대책 마련을 주문했다. tcnews@newspim.com GAM - 해외주식 투자 도우미 10월 첫날 랠리 펼친 미 증시…연말 회복 장담 말라 바닥 탈출 희토류株, 2023년 오기 전 미리 담아야 라씨로 - 국내주식 투자 도우미 퓨처켐, 부진한 증시에 주주배정 유증 성공할까..."전립선암 치료제 개발 순항" 넥스트칩, 3개월 보호예수 11% 해제 앞둬...오버행 부담 [뉴스핌 베스트 기사] 사진 로봇부터 자율주행까지...미래 먹거리 가속페달 정의선 현대자동차그룹 회장이 그룹 지휘봉을 잡은지 2주년을 앞두고 있습니다. 정 회장은 취임하면서 현대차그룹을 첨단 모빌리티 솔루션 기업으로 전환하겠다고 선언했습니다. 2년이 지난 2022년 10월 정 회장은 취임 당시의 약속을 지키기 위해 여전히 바쁘게 움직이고 있습니다. 현대차그룹이 지난 2년 간 어떻게 달라졌고 앞으로 어떻게 나아갈지 살펴봤습니다. [서울=뉴스핌] 정승원 기자 = 정의선 현대차그룹 회장이 취임한 이후 현대차그룹은 공격적인 인수합병(M&amp;A)를 거듭하며 몸집을 불려왔다. 단순히 자동차만 생산해서 판매하던 완성차업체라는 프레임을 넘어 종합 모빌리티기업으로 도약하겠다는 정 회장의 미래 모빌리티 로드맵에 따른 것이다. [정의선號 2년] 글싣는 순서1. 전기차 시대 개막...위상 달라진 현대차그룹2. 로봇부터 자율주행까지...미래 먹거리 가속페달3. 다시 시험대 오른 리더십...당면 과제는? 3일 업계에 따르면 현대차그룹은 정 회장 취임 이후 주요 기업 인수합병에만 1조원 이상을 투입했다. 그 시작은 미국의 로보틱스 기업 보스턴다이내믹스 인수였다. 로봇개 '스팟'으로 유명한 보스턴 다이내믹스는 보행과 인지, 제어가 가능한 로봇들을 보유하고 있는 세계 최고 수준의 로보틱스 기업이다. 현대차그룹은 이전에도 로봇 사업에 관심을 가져왔다. 지난 2014년에는 보행 보조 로봇을 상용화하기도 했다. 이러한 관심은 보스턴 다이내믹스 인수로 이어졌다. 정 회장은 보스턴 다이내믹스 인수 과정에서 사재 2400억원 가량을 투자한 것으로 알려졌다. 정 회장은 보스턴 다이내믹스 인수를 통해 로봇 물류, 안내 및 지원, 로봇팔 등의 기술을 토대로 신사업을 본격화하고 있다. 보스턴다이내믹스의 로봇 '스팟'과 함께 등장하는 정의선 현대차 회장 [사진=현대차] 실제로 정 회장은 지난해 보스턴 다이내믹스 인수 이후 올해 라스베이거스 CES 2022에서 로보틱스 비전을 발표하기도 했다. 정 회장은 CES 2022에서 "로보틱스는 더는 머나먼 꿈이 아닌 현실이다. 현대차는 로보틱스를 통해 위대한 성취를 이루고자 한다"며 "로보틱스를 기반으로 미래 모빌리티 솔루션을 '메타모빌리티'로 확장할 것이며 이를 위해 한계 없는 도전을 이어가겠다"고 밝혔다. 그룹 차원에서도 로봇은 중요한 미래 먹을거리 사업으로 꼽힌다. 현대차그룹은 지난 8월 로봇 인공지능(AI) 연구소 설립을 위해 4억2400만 달러(약 6069억원)를 출자한다고 밝혔다. 현대차그룹이 인수한 보스턴 다이내믹스와 미래 신사업 간 시너지를 내기 위해서 AI 역량을 키우기로 한 것이다. 현대차그룹은 자율주행 분야에서도 인수합병을 통해 몸집을 키웠다. 현대차와 기아는 지난 8월 자율주행 소프트웨어 기술 개발 스타트업인 '포티두닷(42dot)'을 4276억원에 인수했다. 정 회장은 이번 인수 전부터 포티두닷에 관심을 보여왔다. 포티두닷은 네이버 출신의 송창현 대표가 설립한 스타트업으로 정 회장은 인수 전 송 대표를 현대차 TaaS(Transportation-as-a-Service) 본부 사장으로 선임하기도 했다. 현대차그룹은 외부 겸직이 원칙적으로 불가능한데 예외적으로 송 대표에게는 허용할 정도로 포티투닷 기술의 관심을 보였던 것이다. 이외에도 현대차는 지난해 자동차 소프트웨어 개발 업체인 에어플러그도 인수했다. 현대차는 에어플러그 인수를 통해 커넥티드카 서비스를 강화한다는 계획이다. 커넥티트카는 자동차에 무선 통신을 연결하는 기술로 현대차그룹은 기존 커넥티드카 서비스인 블루링크, 제네시스 커넥티드, 기아 유보 등을 운영 중이다. 여기에 에어플러그의 커넥티비티 기술을 통해 클라우드 서비스 등을 확대한다는 계획이다. [사진= 현대차그룹] 현대차그룹은 자율주행에 사용되는 라이다 개발을 위해 글로벌 기업과 협업하고 있다. 라이다는 빛을 통해 거리를 탐지하는 기술로 현대차그룹이 개발하는 자율주행차에 적용하고 있다. 현대모비스는 지난 2019년 자율주행용 라이다 시스템 개발을 위해 미국 벨로다인에 지분 투자를 해 사업 협력을 이어오고 있다.  현대차와 기아도 이스라엘의 라이다 및 센서 개발 업체 옵시스에도 300만 달러를 투자하며 라이다 기술을 개발하고 있다. 또한 로봇용 라이다 기술 개발을 위해 에스오에스랩과도 업무협약을 체결하기도 했다. 현대차그룹은 글로벌 소프트웨어(SW)센터를 국내에 설립해 시장 변화에 적극적으로 대응한다는 방침이다. 현대차그룹 측은 "로봇 AI 연구소는 로봇을 넘어 그룹의 다양한 사업 영역에 인공지능 기술이 확대 적용될 수 있도록 하는 중요한 거점이 될 것"이라며 "글로벌 SW 센터는 기존 개발 체계에 의존하지 않는 유연하고 창의적인 조직 문화를 기반으로 과감한 혁신을 주도해 나갈 것으로 기대된다"고 전했다. origin@newspim.com 2022-10-03 07:24 사진 평생 직장은 없다… 워라밸 중요한 MZ세대 전 세계적으로 세대간의 사고 및 소비 풍속 등이 뚜렷히 나타나고 있다. 1990년대 등장한 X세대에 이어 현재의 2030세대인 MZ세대까지, 이들의 특성과 개성을 구분 짓는 '세대 담론' 역시 우리 사회에서 이슈로 등장했다. 이에 뉴스핌은 MZ 이후 세대인 '알파 세대'(2010년 이후 출생)의 특성을 짚어보고 향후 우리 사회가 나아갈 방향을 제시해 보고자 한다. [서울=뉴스핌] 이정윤 기자 강정아 박두호 정현경 인턴기자 = 17살 드라마 제작자, 현실에선 어렵지만 가상현실 플랫폼 '제페토'에서는 가능하다. 제페토 드라마는 제페토 내 아바타들의 연기를 촬영해 영상으로 제작한 웹드라마다. 이호(17) 양은 제페토 드라마 크리에이터로 활동 중이다. 캐스팅부터 기획, 촬영, 편집 등 모든 업무를 총괄한다. 유튜브와 제페토 플랫폼을 활용해 용돈도 직접 번다. 수익은 달마다 다르지만 한 달 용돈으로는 충분한 정도라고 한다. [포스트MZ 'α세대'] 글싣는 순서1. α세대 그들은 누구인가?2. 소비활동은 가상세계에서3. 스트레스는 학교서 푼다4. 그들만의 문화 '온라인 무덤'5. 영상부터 음성까지…AI 활용 능숙6. "돈도 중요" 10대부터 재테크7. 전통적 직업관은 가라8. 집단 탈피…이젠 개인 교육 이 양의 유튜브 구독자 수는 1만 2000여 명, 누적 조회수는 310만회를 넘었다. 학교생활을 배경으로 한 드라마 '일진이 착해지는 과정'은 조회 수 56만회를 기록했다. 제페토 드라마는 제페토 내 아바타들의 연기를 촬영해 영상으로 제작한 웹드라마로 10대 사이에서 인기를 끌고 있다. [사진=이호 '일진이 착해지는 과정' 유튜브 캡쳐] 2022.10.02 rightjenn@newspim.com ◆ 베이비붐과 X세대, 직업은 생존을 위한 수단 1955년부터 1960년대에 태어난 베이비붐 세대는 어린 시절 빈곤을 경험했다. 양질의 일자리를 잡지 못한 베이비붐 세대는 적성과 흥미 보다는 수입과 안정성을 기준으로 다른 일자리를 찾았다. 그들에게 안정적인 경제활동은 필연적이다. 1970년대생인 X세대는 베이비붐 세대와 다르게 자신의 개성을 표출하는 소비에 적극적이었다. 그러나 1997년 외환위기의 여파로 생계유지가 직업 선택의 중요한 기준이 됐다. 1976년생인 고등학교 교사 B 씨는 "외환위기 전후로 기업 채용이 줄어 고생한 친구들이 정말 많다"며 "그때 이후로 먹고 살려고 취직을 하려다보니 공무원을 하려는 사람들도 많아지고, 전문직 수요도 정말 높아졌다"고 어려웠던 당시 취업시장을 설명했다. X세대의 소비 패턴이나 정치 성향 등은 베이비붐과 확연한 차이를 보이지만 직업 선택에 있어서 적성보다는 수입과 안정성을 최우선으로 삼는다는 점에서 베이비붐 세대와 유사하다. 연령대별 직업 선택요인 [자료=통계청] 2021년 통계청이 조사한 사회조사에는 연령별 직업 선택요인이 나온다. 베이비붐 세대인 60대 이상은 67%, 50대는 69%가 직업을 선택할 때 수입과 안정성을 고려했다고 응답했다. 적성과 흥미를 고려했다는 응답은 60대 이상은 7.8%, 50대는 10%다. X세대인 40대는 수입과 안정성을 택한 비율이 64%로 조금 줄었고 적성과 흥미라고 답한 비율은 14.2%로 소폭 늘었다. ◆ 평생 직장은 없다… 워라밸 중요한 MZ세대 최근 직장을 그만두고 이직준비 중인 C씨(27)는 "잦은 야근과 업무에 시달리다 보니 나를 챙기고 싶었다"며 퇴사 이유를 밝혔다. C씨는 높은 연봉을 보장받았지만 과중한 업무로 퇴사하게 됐다. C씨는 "다음 회사는 적절한 연봉 수준이면서 저녁 있는 삶이 보장되는 곳으로 옮기고 싶다"고 말했다. 1980년대부터 1990년대 후반을 지칭하는 MZ세대는 일과 삶의 균형이 맞춰지는 일자리를 선호한다. 소확행(소소하지만 확실한 행복), 워라밸(일과 삶의 균형)이라는 신조어도 등장했다. 이는 자기 자신에게 투자하는 시간이 중요해진 MZ 세대의 특징을 보여준다 MZ세대 중에서도 90년대 중후반생인 Z세대부터 직업 가치관에 두드러진 변화가 나타났다. 20대는 직업을 선택할 때 수입과 안정성을 우선시하는 비율이 56%로, 처음으로 60% 밑으로 떨어졌다. 적성과 흥미를 응답한 비율은 20.6%로, 50대와 비교해 2배 이상 늘었다. 최지혜 서울대 소비트렌드연구센터 연구위원은 "MZ세대는 내 재능과 연결시켜 수익 극대화 방법을 고민한다"며 "유튜브를 통해 수익창출을 하거나 아이돌 굿즈를 만드는 등 돈 버는 방식에 인식 변화가 생겼다"고 말했다. ◆ 회사에선 일러스트레이터, 메타버스에선 가상공간디자이너 2일 통계청 자료에 따르면 알파세대가 포함된 10대에서 처음으로 순위 변화가 생겼다. 20대 이상의 모든 세대에서 수입 다음으로 안정성을 택했지만 알파세대는 적성과 흥미가 안정성을 제치고 2위를 차지했다. 알파세대는 수입과 안정성을 합한 응답이 51%를 차지했고, 적성과 흥미를 택한 비율이 31.3%로 20대 응답보다도 11%p 늘었다. 50대에 비해 3배 이상 많은 수치다. 이들은 직업의 안정성보다 자신의 흥미와 적성을 우선시한다. 가상공간은 알파세대의 흥미와 적성을 발현시키는 공간으로 시장 규모가 커지고 있다. 글로벌 시장조사업체 프라이스워터하우스쿠퍼스(PwC) 조사에 따르면 2019년 메타버스 시장 규모는 455억달러로 집계됐다. 컨설팅 회사 맥킨지는 2030년에는 시장 규모가 5조달러에 이를 수 있다고 분석했다. 새로운 일자리도 생겨날 전망이다. 2016년 미국의 마이크로소프트와 영국의 미래연구소가 발간한 '미래의 일자리' 보고서에 따르면 대학생 65%는 현재 존재하지 않는 직업에 종사할 것이라고 예측했다. 이 보고서에는 "2025년에는 수천만 명의 사람들이 가상공간에서 일하고, 놀고, 여행하고, 만나서 어울리며 신간을 보낼 것이다"라며 "미래 세대의 많은 건축가와 인테리어 디자이너는 가상공간에서 건물을 지으면서 경력을 쌓을 것이다"라고 나온다. [자료=이미지투데이] 마이크로소프트는 2025년에 주목할 새로운 직업에서 가상공간 디자이너를 꼽았다. 가상공간 디자이너는 가상공간에 나오는 건물과 풍경을 실제처럼 만들고, 캐릭터의 표정과 목소리, 움직임을 자연스럽게 구현해 이용자들에게 몰입감을 선사하는 직업이다. 이들은 가상공간과 현실을 구별되지 않도록 만드는 것을 목표로 한다. 또 디지털 문화 해설가도 새로운 직업으로 제시했다. 직장에 있을 때와 가족이나 친구들끼리 있을 때 정체성이 다른 것처럼 각각의 가상공간에서도 정체성을 달리할 것이다. 디지털 문화 해설가는 사람들이 가상공간에서 정체성을 표출할 때 사용하는 '이미지 언어' 데이터를 분석한다. 디지털 문화 해설가는 데이터를 기반으로 각각의 가상공간에서 어떤 이미지가 유행하고 있는 지를 파악해 로고를 만드는 등 마케팅 활동을 한다. 제페토에서 아이템을 제작해 판매하는 것처럼 알파 세대는 자신의 능력을 가상공간에서 발현해내는 것을 자연스럽게 여길 것이다. 현실에서 일러스트레이터를 하면서 동시에 가상공간 디자이너를 부업으로 삼을 수 있다는 것이다. 김창환 극동대 교수는 "현실 세계뿐만 아니라 가상세계에서도 돈을 동시에 벌 수 있는 사람들이 늘어날 것"이라며 "디지털 부업에서 시작해 전업으로 갈 수도 있고, 처음부터 전업을 삼는 사람들이 늘어날 것"이라며 직업 가치관의 변화를 시사했다. 최 연구위원은 "알파세대는 연령과 사회 변화에 따라 다양한 직업을 가질 것"이라며 "베이비붐 세대가 30년 동안 한 직장에서 일하던 방식은 사라질 수 있다"고 말했다. rightjenn@newspim.com 2022-10-02 07:00 尹대통령 '비속어 논란' 위기 징후 뚜렷하지만 해법 없다 경찰, 대형풍선에 마스크·해열제 담아 北 보낸 박상학 대표 체포 尹정부 첫 국정감사 관전포인트...'尹 vs 文' 책임론 격돌 밤 11시에 주문했는데 새벽에 '툭'...쿠팡은 왜 빠를까 김정은 추진 밝힌 동서 대운하..."중국 참여 가능성 유력" [주요포토] ' 국회 행정안전위원회 국정감사 코스피, 뉴욕 증시 훈풍에 1%대 상승 출발 '소상공인·자영업자의 안전망' 새출발기금 출범 2022년도 국정감사 앞두고 제5차 고위당정협의회 가을비 내리는 서울 감사원의 문재인 전 대통령 조사 관련 기자회견 안다 TV 영상 [시승기] "벨벳 드라이빙의 끝판왕" 렉서스 NX350h 투자직GAM 영상 [투자직감] 한국 공모주 물림의 법칙? 회사소개 주요상품 사업제휴 개인정보취급방침 청소년보호정책 고충처리제도 수용자권익보호위원회 이용약관 광고문의 페이스북 네이버 포스트 플립보드 카카오토픽 RSS 한국신문윤리위원회 서울시 영등포구 국제금융로 70, 미원빌딩 906호 편집국 : 02-761-4409 발행인 : 민병복 편집인 : 박승윤 뉴스핌통신등록번호 : 문화,나00032등록일자 및 발행일자 : 2018.3.22 뉴스핌등록번호 : 서울아00194등록일자 및 발행일자 : 2006.4.26 COPYRIGHT©NEWSPIM CO., LTD. ALL RIGHTS RESERVED. Top으로 이동</t>
-  </si>
-  <si>
-    <t>제주도, 한국관광 데이터랩 우수 활용사례 공모전 '최우수상' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:19 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 한국관광 데이터랩 우수 활용사례 공모전 '최우수상' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 한국관광 데이터랩 우수 활용사례 공모전 '최우수상' 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2021.12.02 14:31 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도가 '2021 한국관광 데이터랩 우수 활용사례 공모전'에서 최우수상을 수상했다. 한국관광공사가 주관한 이번 공모전은 현업 우수 사례를 발굴해 관광 빅데이터 활용도를 높이고, 데이터 기반 의사결정을 지원하기 위해 마련됐다. 전국 지방자치단체·공공기관, 학술연구기관 등에서 응모한 29건을 대상으로 내용의 논리성 및 창의성, 업무 활용성 등을 기준으로 심사가 이뤄졌다. 이 결과 제주도 디지털융합과 빅데이터팀이 응모한 ‘슬로우로드 서비스를 위한 기반자료 구축’ 사례가 최우수에 선정됐다. 이 사례는 제주의 자연을 만끽하며 여행하는 우회길(슬로우로드) 안내 서비스를 구현할 수 있는 빅데이터 분석 모델을 제시하고 있다. 제주도는 이 분석 결과를 바탕으로 제주관광공사, 티맵모빌리티, 제일기획과 업무협약을 맺고 ‘목적지까지 빠른 길을 안내한다’는 길 안내 서비스의 고정관념을 깬 슬로우로드 내비게이션 서비스를 시범적으로 운영 중이다. 공공데이터 개방·품질관리 등의 업무수행을 위해 제주도에 배치된 2021년도 행정안전부 공공 빅데이터 청년인턴(일경험 수련생)들이 주도적으로 데이터 처리 및 분석 실습에 참여한 점도 특징이다. 윤형석 제주도 미래전략국장은 “빅데이터로 지역 현안을 해결하고 행정 서비스를 개선하기 위해 다양한 시도를 하고 있다”면서 “앞으로도 새로운 가치를 창출하고 양질의 공공데이터를 선보이도록 노력해 나가겠다”고 말했다.  &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 제주관광 권역별 현장홍보 강화 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 제주관광 권역별 현장홍보 강화 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 제주관광 권역별 현장홍보 강화 김지우 기자 승인 2021.12.12 13:22 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 부동석)는 서울, 부산, 광주 등 권역별 중심 도시에서 공격적인 홍보마케팅을 추진한다고 12일 밝혔다. 이를 통해 제주관광 브랜드 위상을 높이고 관광객을 유치한다는 방침이다. 이에 따라 제주도관광협회는 지난 11일 경기 남부지역의 롯데몰 광명점에서 관광객 유치를 위한 제주관광 현장 홍보를 진행했다. 단계적 일상회복에 따른 여행 갈증을 해소하고 제주에 대한 관심도 및 잠재수요 제고를 위해 진행된 이번 행사는 접종완료자 등 방역패스 의무 적용을 통한 사전 예약제로 운영됐다. 온라인 제주여행 공공플랫폼 탐나오 신규 가입고객을 대상으로 ‘나만의 제주도 머그컵 만들기’ 체험 이벤트와 제주의 맛을 느낄 수 있는 감귤 타르트를 함께 증정해 관람객의 호응을 얻었다. 또 제주여행 공공플랫폼 탐나오를 통해 위드 코로나 시대 안전한 제주 여행, 제주 겨울 핫플레이스를 중점적으로 홍보하고 도내 관광사업체 및 제주감귤따기 체험, 제주시티투어버스 야간테마 2코스 등 다양한 제주관광 정보를 제공했다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>한국관광통역안내사협회, 제주도 관광통역안내사 대상 자연생태 관광교육 진행 &lt; 정보경영 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-04 11:20 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 한국관광통역안내사협회, 제주도 관광통역안내사 대상 자연생태 관광교육 진행 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정보경영 한국관광통역안내사협회, 제주도 관광통역안내사 대상 자연생태 관광교육 진행 기자명 강이정 기자 입력 2021.12.10 13:16 수정 2021.12.10 13:17 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [디스커버리뉴스=강이정 기자] 한국관광통역안내사협회가 제주 지역에서 전문적으로 활동 중인 관광통역안내사 18명을 대상으로 자연생태 관광교육을 진행했다고 10일 밝혔다. 이 교육은 지난달 22일부터 24일까지 3일 동안 스토리텔링 기반을 둔 관광지 해설기법 양성을 위해 진행 했다. 자연생태 관광을 주제로 진행한 이번 교육에 참여한 관광통역안내사들은 ‘경북 예천(회룡포, 용문사)’, ‘경북 문경(고모산성, 문경새재 도립공원, 오픈세트장, 단산 모노레일)’, ‘충북 제천(옥순봉 출렁다리, 충주호)’, ‘강원 영월(관풍헌, 청령포, 장릉, 한반도지형)’을 방문했다. 한국관광통역안내사협회는 현장 실습과 체험 교육 등을 진행하면서 관광통역안내사로서 자질 향상과 더불어 더욱 성장할 수 있는 계기를 마련했으며, 교육 참여자들은 안전을 위해 마스크 착용과 체온 검사, 손 소독제 사용 및 사회적 거리두기 등을 실천했다. 한국관광통역안내사협회는 문화체육관광부 인가 비영리법인으로, 관광통역안내사는 관광진흥법에 근거하여 우리나라 역사와 문화를 올바르게 알리고 나누며, 세계와 소통하고 있다. 강이정 기자 discoverynews8@discoverynews.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도의회, 위드코로나로 변화하는 관광시장에 맞는 예산 편성 주문 주메뉴 바로가기 본문 바로가기 2022.10.04 (화) 카카오채널 RSS 모바일보기 흐림서울 17.1℃ 구름많음제주 23.9℃ 구름많음고산 22.4℃ 구름많음성산 23.1℃ 흐림서귀포 24.9℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회, 위드코로나로 변화하는 관광시장에 맞는 예산 편성 주문 서유주 기자 news@jejutwn.com 등록 2021.12.01 15:19:28 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 [제주교통복지신문 서유주 기자] 제주도의회 문화관광체육위원회 오영희 의원(국민의힘, 비례대표)은 제400회 제주도의회 정례회 상임위 3차 회의에서 관광국장을 상대로“위드코로나로 변화하는 관광시장에 선제적 대응 준비에 맞는 예산 편성이 될 수 있도록 노력해달라”고 강조했다. 특히, 2022년도 예산안에 관광국이 위드코로나에 맞춘 예산의 방향인지를 점검하고, 기존 편성된 마케팅 사업과 유관기관 간 연계사업 추진에 관광국이 컨트롤 역할을 해야 하는 부분에 맞는지 초점을 두고 살펴보라고 주문했으며, 최근 사회적 거리두기 완화 조치와 변이바이러스 급증으로 도민들은 기대 및 우려 등 혼란한 상황임을 잘 감지하여 항공, 교통, 숙박, 관광지 등 대응태세 및 방역대책까지 어떻게 연계할지도 노력해달라고 했다. 오영희 의원은 “코로나 상황에서 제주관광 소비는 2021년 상반기 1조 3093억 원으로 전년 동기 대비 55.2% 증가를 하면서 회복세를 보이고 있지만 위드코로나로 관광패턴이 비대면 소규모로 변화하면서 일부 업종은 호황을 누린 반면, 경영난을 겪으며 휴폐업하는 업종도 증가해 특정업종에 편중되고 있다”고 지적하면서 :균형있는 예산 편성을 할 수 있도록 주문했다. 제주 고용동향도 지난 6월 제주연구원 발표자료를 인용하면서 고용변화 유형은 ‘해고’가 46.1%로 가장 많았고, 이어 ‘무급·유급 휴직’(18%), ‘교대근무 전환’(10.1%) 순으로 나타나고 있으며, 해고가 가장 많은 업종은 ‘도·소매업’(66.7%)이고, ‘예술·스포츠·여가 관련 서비스업’(50%)으로 나타나고 있다고 설명했다. 제주도가 고용 안정과 일자리 창출을 위해 우선 해결해야 할 과제로 응답 업체의 65.3%가 고용유지지원금 확대를 꼽고 있는 만큼, 내년 예산 편성에도 신중을 기해 달라고 당부했다. 오영희의원은 신규자체 사업 중심으로 예산을 점검하면서 특히, ‘뉴노멀시대 제주관광대비 안심·안전 환경 조성’, ‘우수 방역국가 간 안심방역 여행상품 지원 사업’. ‘해외 관광객 특수목적 체험여행 테마발굴’, ‘온라인 해외 제주관광전문가 양성과정 운영’등에 적극적으로 지원해 달라고 했다. 이와 더불어 국제관광시장 재개에 따른 유기적 대응 및 선제적 마케팅 추진의 필요성을 강조했으며, 싱가포르 트래블 버블 등 국제관광재개에 따른 동남아 등 홍보마케팅 강화 사업 등에도 예산 편성이 적절하게 편성될 수 있도록 당부했다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 [TW포토] 제주관광대 탐모라볼빛축제…장덕철 열창 4 3년 만에 개최되는 제3회 서귀포 은갈치 축제 9월 30일 개최 5 제주시, 10월 시정시책공유 간부회의 개최 6 2022 청춘마이크 제주 뮤직 페스티발 9월 30일 개최 7 [TW포토] 제주관광대 탐모라볼빛축제 성황리에 열려 8 서귀포시 서부보건소, 제주도 최초 선정 '생애 초기 건강관리사업' 운영 9 서귀포시, 민원업무 담당자 직무교육 실시 10 서귀포시, 美 풀러턴(Fullerton)市와 함께한‘창업 및 수출지원 세미나’성료 실시간 뉴스 2022-10-04_TUE [TW포토] 제주 한라산 일출 풍경, '핑크빛 하늘' 06:40 제주 오션갤러리, 시행사 보유분 특별분양 03:58 2022-10-03_MON 제주도, 김희현 정무부지사, 국학기공대회 참석 격려 16:39 제주도, 무오법정사 항일항쟁 104주년…“숭고한 정신 이어 새로운 미래 준비” 16:38 제주도의회 김황국 의원, 스포츠관광 정책 발전 기여 공로상 수상 16:31 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 04일 11시 19분 최상단으로</t>
-  </si>
-  <si>
-    <t>제주도, 올 하반기 우수관광사업체 지정 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 올 하반기 우수관광사업체 지정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 올 하반기 우수관광사업체 지정 현대성 기자 승인 2021.12.01 15:51 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 1일 올 하반기 우수관광사업체로 12개 업체를 지정했다. 올 하반기 우수관광사업체는 ▲상효원 ▲제주민속촌 ▲다이나믹 메이즈 ▲삼성혈 ▲메이즈랜드 ▲제주레일파크 등 관광지 6곳 ▲드림고속 ▲중앙우등관광 등 교통업체 2곳 ▲제주속으로 등 여행업 1곳 ▲제주도그릴 ▲자매국수 ▲흑돈가 등 음식업소 3곳이다. 제주도는 도내 관광사업체 경쟁력 강화를 위해 매년 상·하반기 우수관광사업체를 지정하고 있다. 12개 업체에는 우수관광사업체 지정서 및 인증패가 수여되며, 홍보지원금 80만원이 지급된다. 우수관광사업체 지정 기간은 2년이다. 김승배 제주도 관광국장은 “단계적 일상회복에 따른 관광객 증가에 맞춰 우수한 관광사업체를 꾸준히 발굴해 나가겠다”고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>[대구 코로나 현황] 신규 확진자 160명… 제주도 단체관광 등 menu 신규 확진자 160명… 제주도 단체관광 등 search add_circle close 정치 국회·정당 정치일반 대통령실·총리실 북한 외교·통일 국방 기자수첩 English News 경제 경제일반 기업·산업 IT·전자·과학 건설·부동산 금융·증시 자동차 유통 방송·통신 정책 기자수첩 English News 국제 국제일반 국제HOT뉴스 기자수첩 한줄로 보는 오늘 지구촌 Global Opinion 국제인사이드 English News 사회 사회일반 사건·사고 법원·검찰·경찰 교육·캠퍼스 노동·인권·여성 행정자치 식품·농수산 보건·복지·의료 환경·날씨 피플 교통 보훈 언론·미디어 기자수첩 English News 문화 전체 문화일반 단독 전통문화 문화재 만화 박물관 기자수첩 OTT·방송 공연·전시 문화인 영화 책마당 English News 종교 전체 개신교 천주교 불교 민족종교 세계종교 종단연합 기자수첩 종교인 종교문화 종교오피니언 English News 연예 가요 연예가 화제 연예일반 스타⭐ 천지라인⭐ 방송·TV 핫이슈 기자수첩 English News 스포츠 스포츠일반 축구 야구 골프 e-스포츠 배구 농구 바둑 기자수첩 English News 전국 서울 인천/경기 대전/세종 충청 광주/전남/전북 대구/경북 부산/울산/경남 강원 제주 기자수첩 English News 글마루 역사 종교 문화 기타 마루대문 천지매거진 기자수첩 English News 라이프 PR광장 패션·뷰티 교육·출판 육아 리빙 식품 웨딩 게임 여가·여행 공연·축제·박람회 컴퓨터·휴대폰·IT 창업·프랜차이즈 캠페인 부동산 English News 웰빙건강 의학정보 힐링정보 English News 비주얼뉴스 카드뉴스 English News 포토ZONE 전체 정치 경제 국제 사회 문화 종교 연예 스포츠 전국 글마루 라이프 웰빙건강 비주얼뉴스 특집 유통 대학 공기업 금융 기업 통신 자동차 English News 오피니언 천지시론 칼럼 사설 투고 ·기고 기자수첩 만평 시사카툰 가로세로 퀴즈 English News 기획 특별기획 정치기획 경제기획 사회기획 문화기획 종교기획 전국기획 기자수첩 English News 천지TV 전체 정치 경제 사회 문화 종교 연예 스포츠 오피니언 기획 English News 이용안내 신문사소개 구독신청 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 고충처리제도 RSS 전국 대구/경북 [대구 코로나 현황] 신규 확진자 160명… 제주도 단체관광 등 송해인 기자 승인 2021-12-17 16:58 이 기사를 공유합니다. close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 [천지일보 대구=송해인 기자] 16일 오후 대구시 중구 국채보상공원에 설치된 임시선별검사소에서 시민들이 코로나19 검사를 받기 위해 대기하고 있다. ⓒ천지일보 2021.12.16 [천지일보 대구=송해인 기자] 대구에서 신종 코로나바이러스 감염증(코로나19) 신규 확진자가 160명 발생했다. 이날 신규 확진자 중에는 제주도 단체관광을 다녀온 친목 모임 2개팀에서 감염자가 나왔다. 신규 확진자 중 11명은 대구에서 제주도 관광을 다녀온 60~70대 어르신들이다. 이들은 지난 6~9일까지 2개 팀이 제주도 관광을 다녀온 후 1명이 확진돼 일행들을 검사한 결과 추가 확진자가 나왔다. 17일 대구시 재난안전대책본부에 따르면 이날 0시 기준 코로나19 신규 확진자는 160명으로 누적 확진자는 2만 1167명(지역감염 2만 822명, 해외유입 345명)이다. 서구 소재 목욕 시설 관련 12명이 확진돼 누적 확진자는 74명으로 늘었다. 북구 소재 교회 관련 4명(누적 51명), 북구 소재 병원 관련 2명(누적 42명), 달서구 소재 의료기관 관련 2명(누적 31명), 중구 소재 목욕탕 관련으로 2명(누적 19명)이 추가 확진됐다. 수성구 일가족 관련으로 7명, 북구 일가족 관련 4명, 달서구 일가족 관련 4명, 타지역 확진자의 접촉자로 9명이 확진 판정을 받았다. 기타 확진자의 접촉자로 64명이며, 해외유입은 영국·베트남에서 입국한 2명이 확진됐다. 대구 방역당국은 감염원을 조사 중인 확진자 34명의 감염원 확인을 위해 의료기관 이용력, 출입국 기록, 휴대폰 위치정보, 카드사용 내역 확인 등 역학조사를 진행하고 있다. 현재 대구에서 격리 치료 중인 확진자는 1553명이며, 지역 내외 병원과 생활치료센터 등에서 입원 치료 중이다. 송해인 기자 ssong2182@newscj.com 다른기사 보기 #천지일보#코로나바이러스#감염증#코로나19#단체관광#감염자#확진자#접촉자 저작권자 © 천지일보 - 새 시대 희망언론 무단전재 및 재배포 금지 기사제보 지면구독신청 댓글 로그인 후 이용해주시기 바랍니다. 최신순 추천순 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 천지TV 영상송출채널 바로가기 천지오피니언 전체 천지시론 사설 칼럼 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 사설 피의자 ‘신상공개 사진’ 기준 필요하다 사설 감사원의 문재인 전 대통령 조사… 법적 절차에 따라 받아야 한다 칼럼 가보고 싶은 건축 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 천지시론 송구영신(送舊迎新)… 선천(先天) 종말과 후천(後天) 재창조 천지시론 해가 지지 않는 나라?… 이제 해가 졌고, ‘의로운 해(熙)’가 떠올라 천지시론 지금은 참 종교의 시대… 계시 받은 자 앞으로 나와야 하는 때 사설 피의자 ‘신상공개 사진’ 기준 필요하다 사설 감사원의 문재인 전 대통령 조사… 법적 절차에 따라 받아야 한다 사설 무역수지 6개월 적자, 경상수지도 적자로 가나 사설 국정감사는 입법부 고유 권한이다 칼럼 가보고 싶은 건축 칼럼 기후 재난은 불평등 문제다 칼럼 “네가 좀 와서 들어줄래?” 아동성범죄자 김근식이 출소한다 칼럼 경제위기와 경제질서 기획 [한국인 이만희 평화실화 FOCUS│HWPL과 루마니아&lt;5&gt;] HWPL과 약속 지킨 동유럽 수반들 “한반도 평화 통일지지” [한국인 이만희 평화실화 FOCUS│HWPL과 루마니아&lt;4&gt;] 동유럽 민주주의 주역들도 “이만희 대표와 함께 하겠다” 손들어 [현대이야기&lt;21&gt;] “삼성을 잡아라”… 메모리 반도체 개발에 사활 걸었던 현대전자 연중기획 중소기업강국코리아 코리아스페이스㈜ 스페이스케어 “코로나 바이러스 99.99% 사멸로 청해부대 등 집단감염 막는다” 신문사소개 기사제보 광고/제휴문의 구독신청 저작권문의/구매 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (주)천지일보등록번호 : 서울 아00902등록일자 : 2009년 7월 1일제호 : 천지일보발행·편집인 : 이상면발행소 : 서울특별시 용산구 청파로89길 31 코레일유통 빌딩 3~5층발행일자 : 2009년 9월 1일전화번호 : 1644-7533청소년보호책임자 : 황금중사업자등록번호 : 106-86-65571통신판매업신고번호 : 2013-서울용산-00392대표자 : 이상면 「열린보도원칙」천지일보는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 강은영 02-1644-7533 newscj@newscj.com Copyright © 천지일보 - 새 시대 희망언론.  All rights reserved. mail to newscj@newscj.com</t>
+    <t>중화권 한국 관광지 1순위는 ‘제주도’ 명불허전 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 중화권 한국 관광지 1순위는 ‘제주도’ 명불허전 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 중화권 한국 관광지 1순위는 ‘제주도’ 명불허전 기자명 진순현 기자 입력 2021.12.28 16:14 수정 2021.12.28 16:22 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 올해 중화권 소비자 여행트렌드 분석 내년 중화권 마케팅 방향은? ‘제주 척 캠페인’ 온라인 홍보 누적 조회수 11.2억뷰를 달성했다. 올해 코로나19 팬데믹으로 중국인의 발길이 멈춘지 2년이 됐다. 여행 트렌드는 급속하게 달라졌고, 새로운 소비층인 MZ세대가 등장하면서 세계관광산업에 큰 변화가 일어난 한해였다. 올해 4~10월까지 중국 주요 거점도시 7곳에서 추진된 ‘제주 척 캠페인’ 온라인 홍보 누적 조회수가 11.2억뷰를 달성하기도 했다. 제주도가 중화권 소비자들로부터 여전히 큰 호응을 얻고 있는 것으로 나타났다. 제주관광공사(사장 고은숙)는 내년 중화권 마케팅 방향을 알기위해 올해 중화권 소비자 대상 해외여행 의향 및 제주여행 선호도를 파악하기 위한 설문조사를 시행했다고 28일 밝혔다, 우선 코로나19 이후 해외여행 계획은 △3개월 이내(50.1%) △6개월 이내(25.6%) △1개월 이내(16.0%) △1년 이내(8.3%) 순으로 3개월 이내가 독보적으로 높게 나타났다. 코로나19 이후 한국을 방문한다면 방문하고 싶은 도시로 ‘제주’(35.1%)가 가장 많았고, ‘부산’(23.1%), ‘인천’(21.2%)이 그 뒤를 이었다. 제주를 여행을 희망하는 이유로는 △근거리(48%) △무비자(47.8%) △실내·외 관광 활동의 다양성(47.2%) △적절한 여행비용(45.2%) 답변이 높았다. 중국인에게 제주는 지리적, 제도적 여건을 갖추고 있고, 적당한 가격으로 다양한 관광 활동이 가능한 관광지로 인식되어 있음을 알 수 있다. 제주 여행 시 희망 동행인은 ‘친구’(42.9%)가 ‘연인’(23.3%), ‘가족’(18%) 등과 비교해 높은 응답을 보였다. 희망 여행방식은 ‘자유여행’(41.7%), ‘단체여행’(39.6%)으로 조사됐다. 코로나19 이전 제주 여행 경험과 비교하면 △단체여행은 코로나19 이전(53.1%)→이후(39.6%) △자유여행은 코로나19 이전(35.6%)→이후(41.7%)로 코로나 상황으로 인해 자유여행에 대한 니즈가 높아졌다고 분석됐다. 제주에서 원하는 관광활동은 △식도락(50.8%) △호캉스(49.6%) △문화탐방(45.8%) △원데이투어(44.9%) △마을여행(43.3%) 순으로 선호도가 높았다. 공사 관계자는 “올 들어 코로나19 백신 접종 확대, 트래블버블 시행, 위드 코로나 전환 등 해외여행 재개에 대한 소비자들의 기대심리가 높게 나타났다”며 “특히 제주는 중국과 지리적으로 인접해 있고, 다양한 관광자원을 갖춰 중국인들에게 여전히 매력적인 여행지고, 여행 수요 역시 긍정적인 것을 확인할 수 있었다”고 밝혔다. 또한 “해외여행 재개 후 제주 여행 니즈가 높은 MZ세대 유치를 위해서는 도내 관광업계와의 미식, 힐링, 안전, 문화 등 다양한 SIT 관광 테마 육성이 필요할 것”이라고 피력했다. 한편 이번 조사는 오미크론 변이바이러스 확산 전인 10월 12일~26일까지 보름간 중국 SNS 웨이보와 설문조사 플랫폼 원줸싱에서 총 1만1025명을 대상으로 실시됐다. 진순현 기자 jinjin3808@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 무슬림 관광객들에게 손짓…가이드북도 발간 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 무슬림 관광객들에게 손짓…가이드북도 발간 등록 2021.12.22 15:17:21 작게 크게 기사내용 요약 무슬림 친화 식당 발굴…무슬림 유튜버 통한 홍보도 [제주=뉴시스] 양영전 기자 = 제주관광공사가 제주 관광시장의 글로벌 경쟁력 강화를 위해 성장 잠재력이 큰 아시아 및 중동 시장에 대한 유치 마케팅을 전개한다고 22일 밝혔다. 공사는 최근 포스트 코로나를 대비해 한국관광공사에서 인증하는 도내 무슬림 친화 식당 8곳을 신규 발굴하고, 방문객들의 이용 편의성 제고를 위한 외국어 메뉴판 제작 등 무슬림 관광 인프라를 정비했다. 또 인도네시아에서 큰 인기를 얻고 있는 주한 무슬림 유튜버와 협업해 무슬림 가족 및 여성 맞춤형 제주 여행 영상 홍보사업을 추진했다. 이와 함께 관광 정보 제공과 제주여행 만족도를 높이기 위해 무슬림 개별관광객(FIT) 특화 제주 여행 가이드북(Jeju Travel Guide for Muslim Visitors)를 이달 발간했다. 가이드북에는 무슬림 관광객이 쉽게 접근할 수 있는 무슬림 친화 식당과 기도실, 지역 내 주요 관광지에 대한 정보도 함께 실어 제주의 볼거리와 먹거리 정보를 제공하고 있다. 제주관광공사 관계자는 "코로나19 이전부터 무슬림 관광시장은 매년 급성장하는 시장이었다. 최근 한류열풍으로 코로나19 이후에는 성장이 더욱 가속화될 전망"이라며 "공사는 앞으로도 제주 관광시장 다변화를 이끌고 경쟁력을 제고하기 위해 무슬림시장 타깃 마케팅에 힘쓰겠다"고 밝혔다. ◎공감언론 뉴시스 0jeoni@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3삼성전자 사들이기 시작한 외국인…분위기 반전될까 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3삼성전자 사들이기 시작한 외국인…분위기 반전될까 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 BAT, '글로하이퍼X2' 출시 기대감…연말 전자담배 3파전 격화하나 창원대학교, 지역과 함께 '대동제' 12~13일 연다 금호석유화학 주가, '나홀로 질주' 비결은 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 지어소프트, 8회차 CB 전환가액 하향 조정 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 금호석유화학 주가, '나홀로 질주' 비결은 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 금호석유화학 주가, '나홀로 질주' 비결은 지어소프트, 8회차 CB 전환가액 하향 조정 금감원, 금융사 직원에 '프리패스 출입증' 발급 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 창원대학교, 지역과 함께 '대동제' 12~13일 연다 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 논산시-백제병원, ‘아이 키우기 좋은 의료안전망 구축’ 맞손 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 창원대학교, 지역과 함께 '대동제' 12~13일 연다 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 '최우수 공연관광지' 서귀포 치유의 숲 선정 닫기 전체기사 최신뉴스 GAM 라씨로 영상 영상 포토 포토 정치 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사회 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 글로벌 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 중국 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 산업 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 증권·금융 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 부동산 정책 건설 분양 수익형부동산 전국 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화·연예 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 스포츠 해외스포츠 국내스포츠 축구 야구 골프 오피니언 오피니언 회사소개 CEO 인사말 뉴스핌은 주요상품 가치·철학 발자취 조직도 윤리강령 찾아오시는 길 사업·광고문의 사업제휴 광고문의 유료서비스 유료안내 결제서비스 안내 환불정책 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일주소수집거부 저작권규약 고충처리제도 수용자권익보호위원회 회원 로그인 아이디·비밀번호찾기 회원가입 로그인 뉴스핌제보 닫기 검색 패밀리 사이트 뉴스핌통신 PLUS 월간 ANDA 中文 안다쇼핑 ANDA 뉴스 닫기 전체메뉴 영상 포토 정치 경제 사회 글로벌 중국 산업 증권·금융 부동산 전국 문화·연예 스포츠 오피니언 #GAM #라씨로 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사건·사고 법원·검찰 로펌 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 재계·경영 전기·전자 자동차 ESG 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 정책 건설 분양 수익형부동산 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 해외스포츠 국내스포츠 축구 야구 골프 홈 전국 제주 속보 한국조선해양, 3468억원 규모 LNG운반선 1척 수주배터리 핵심소재 '동박' 시장 놓고 '롯데 vs SK' 주도권 싸움[영상] 이복현 금감원장 "도이치모터스 관련 경찰에 자료 요청 오지 않았다"큐브엔터, (여자)아이들 미니 5집 'I love' 선주문 70만장 돌파코웨이, KCSI 조사 침대·정수기 만족도 1위제주 도내 사회적경제기업 총 638개소…제주도 "맞춤형 지원"[부고] 지영흔(하나은행 홍보팀장)씨 부친상에이프로젠, 휴미라 바이오시밀러 특허 출원...생산성 증대삼성전자, 웰스토리 검찰 압수수색 불복 준항고 취하안실련ᐧ자살예방 시트백커버 1800세트 전국모범운전자연합회 기증 시티랩스, '그리고'에 국내 최초 운전면허 명의도용 방지 안면인증 솔루션 공급이엔플러스, 2차전지 양산 핵심설비 반입 완료…"내년 양산 준비 순항"안성 한 지역농협서 5억원 빼돌린 직원 자수...검찰 송치[국감] 송석준 "토스·카카오페이 등 선불충전 악용 보이스피싱 4년간 310배 폭증"3분기, 국내 기업 자금조달 250조9000억원…전년比 22.2%↓[국감] 정청래 "尹대통령, 디지털 키우겠다면서 예산은 삭감? 앞뒤 안맞아"[국감] 덕수궁 석조전 대한제국역사관, 국립박물관이지만 "유물 구입비 전무"신라젠, 내일 상폐여부 결정...17만 개미 운명은?[속보] 대전경찰청, '대전 화재' 관련 현대백화점그룹 본사 압수수색 [국감] 이복현 금감원장 "보험사 GA 설립 시 부당행위 면밀히 보겠다" 더보기 제주도 '최우수 공연관광지' 서귀포 치유의 숲 선정 기사입력 : 2021년12월20일 14:59 최종수정 : 2021년12월20일 14:59 카카오톡 페이스북 트위터 카카오스토리 밴드 가 + 가 - 프린트 [제주=뉴스핌] 문미선 기자 = 서귀포 치유의 숲이 2021년도 도가 선정한 최우수 공영관광지로 뽑혔다. 제주도는 공영관광지 32개소 대상으로 운영평가를 진행해 서귀포 치유의 숲, 제주4.3평화공원, 제주해녀박물관 등 총 6개소를 우수 공영관광지로 선정했다고 20일 밝혔다. 제주절물자연휴양림.[사진=제주특별자치도] 2021.12.20 mmspress@newspim.com 도는 도내 공영관광지의 경쟁력을 강화하고, 방문객에게 고품질의 관광서비스를 제공하기 위해 매년 공영관광지 운영평가를 하고 있다. 올해 최우수 관광지에 선정된 서귀포 치유의 숲은 관광약자(장애인, 임산부 등) 편의시설 제공 등 전반적인 만족도가 높다는 점이 좋은 평가를 받았으며, 우수 관광지로 뽑힌 제주4·3평화공원 및 제주해녀박물관은 다양한 프로그램 등 콘텐츠 운영 매력도가 높이 평가됐다. 앞서 도는 7~11월 공영관광지 운영평가 결과를 공영관광지 운영평가위원회 회의에서 9일 심의·의결했다. 또한 '제주특별자치도 공영관광지 운영평가 조례' 제10조에 따라 전문조사기관에 의뢰해 평가대상 관광지 방문객을 대상으로 일 대 일 설문조사도 진행했다. mmspress@newspim.com [관련기사] 제주 신화역사공원·헬스케어타운 사업기간 3년 연장세계지질공원 제주총회 폐막…"디지털 총회, 역대 최고 총회"제주 외국투자유치 '총력'…국제행사 연계 홍보 강화제주자연체험파크 조성사업 환경훼손 논란...'지역간 입장차' 극명 GAM - 해외주식 투자 도우미 [김특의 뇩멍] 스벅보다 싸고 던킨보다 맛있는 커피를 먹다 5년 새 주가 10배, 외국인이 쓸어 담는 화장품 기대주 '프로야' 라씨로 - 국내주식 투자 도우미 범한퓨얼셀, 지상 모빌리티용 연료전지 사업 확장..."글로벌 시장 확대 수혜" 코난테크놀로지, 16년 투자한 SK커뮤니케이션즈…락업 물량 20% 풀린다 [뉴스핌 베스트 기사] 사진 北 리설주, 김정은과 군사훈련 '이례적' 동행…핵무력 자신감 표출 [서울=뉴스핌] 이영태 기자 = 북한 김정은 노동당 총비서 겸 국무위원장 부인 리설주 여사가 김 위원장이 직접 지휘했다는 지난 보름간의 북한의 탄도미사일 시험발사 현장에 모습을 드러낸 것으로 10일 확인됐다. 북한 관영 조선중앙통신과 조선노동당 기관지 노동신문은 노동당 창건 77주년 기념일인 이날 "경애하는 김정은 동지께서 조선인민군 전술 핵운용 부대들의 군사훈련을 지도했다"면서 김 위원장이 북한군 전술핵운용부대·장거리포병부대·공군비행대의 훈련을 직접 지휘했다고 보도했다. 북한 김정은 국무위원장 부인 리설주 여사가 지난달 29일부터 보름간 진행된 전술핵운용부대 군사훈련을 김 위원장과 함께 참관했다고 북한 노동신문과 조선중앙통신이 10일 보도했다. 리 여사는 지난 2013년 6월과 2016년 12월 김 위원장의 공군 부대 훈련 참관에 동행한 바 있다. 2022.10.10 [사진=노동신문] 북한 언론들은 기사와 함께 리 여사가 김 위원장과 둘이서 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 사진 한 장을 공개했다. 사진은 KN-25가 점화되는 순간에 촬영된 듯 김 위원장은 왼손에 담배 한 개비를 들고 얼굴을 살짝 일그러뜨린 채 엄지손가락으로 귀를 막고 있고, 리 여사 역시 바로 옆에서 표정을 한껏 찡그리고 귀를 막는 모습을 담았다. 북한 언론이 최고지도자 부부가 귀를 막는 사진을 특별히 선택해 실은 것은 초대형 방사포 등의 위력을 강조하려는 의도가 담긴 것으로 풀이된다. 리 여사는 북한이 3대 세습 정당화로 내세운 '백두혈통'의 상징인 백두산 백마 등정으로부터 '선대 수령'의 시신이 있는 금수산태양궁전 참배, 열병식 사열 등 주요 행사 때 남편과 동행했으나, 미사일을 발사하는 군사훈련 현장에 동행한 것은 이례적이다. 전문가들 사이에선 공직을 맡고 있지 않은 리 여사의 이례적 군사훈련 참관과 동행은 북한이 자신들의 핵능력에 대한 자신감을 표출함과 동시에, 이번 도발이 단순한 '시험발사' 수준을 넘어서는 군사행보임을 보여주기 위한 것이라는 평가가 나온다. 북한은 그에게 '여사' 또는 '동지'라는 호칭을 쓰며 퍼스트레이디의 지위를 확실히 했다. medialyt@newspim.com 2022-10-10 14:04 사진 "급매물도 아직 비싸"…내집마련 수요 아직 '머뭇' [서울=뉴스핌] 최현민 기자 = 부동산 시장 침체기로 집값이 하락세를 보이자 급매물이 쏟아지고 있지만 수요자들은 내집 마련에 선뜻 나서지 못하고 있다. 문재인 정부 기간 집값이 급등한 탓에 여전히 비정상적으로 높다는 인식이 많아서다. 최근 비교적 낮은 가격에 급매물이 나오고 있지만 이들 매물 역시 5년전 가격보다 70% 가량 높은 수준이다. 특히 당시 아파트를 살수 있었던 금액으론 현재 전세살이도 힘들다. 수천만원 호가를 내린 매물들이 외면받는 이유다. 내년까지 급매물은 지속적으로 늘어날 전망이 우세하다. 점차 시장에 급매물들이 쌓일 경우 집값이 더 낮아질 것이란 기대감에 매수 심리가 더욱 위축될 것으로 보인다. 10일 부동산업계에 따르면 시세보다 저렴하게 내놓는 급매물이 증가하고 있지만 정작 내집마련 수요를 비롯한 실수요들은 '버티기'를 지속하고 있는 중이다. [서울=뉴스핌] 김학선 기자 =서울 용산구 일대 아파트 모습. 2022.08.21 yooksa@newspim.com ◆ 5년전 아파트 매매 가능했던 금액, 올해는 전세살이도 어려워 최근 주택시장에는 가격을 비교적 큰 폭으로 낮춘 급매물이 나오고 있다. 집값의 바로미터가 되는 강남4구(강남·서초·송파·강동)도 예외는 아니다. 특히 1000세대 이상 대단지 아파트에서도 수억원이나 떨어진 급매물들이 속속 나오고 있다. 강남구 일원동 지역의 아파트 매매 매물은 294건으로 6개월 전 171건에 비해 71.9% 증가했다. 같은 기간 송파구 잠실동 지역의 매물 역시 557건에서 817건으로 46.6% 증가했다. 강동구 명일동(226건→323건)은 42.9%, 서초구 방배동(481건→641건)은 33.2% 증가했다. 하지만 정작 거래는 활발하게 이뤄지지 않고 있는 모양새다. 호가를 수천만원 내린 매물도 실수요자들에게 외면받고 있다. 문재인 정권이 출범한 2017년 이후 급등한 집값이 여전히 높기 때문이다. KB부동산에 따르면 지난달 기준 전국의 아파트 평균 매매가격은 5억5601만원이다. 이는 2017년 9월(3억2936만원) 대비 68.8% 높은 수치다. 올해 들어 집값이 하락세를 보이고 있지만 여전히 5년 전 가격과 비교하면 70% 가까이 높은 수준이다. 전세가격 역시 크게 올랐다. 전국의 아파트 평균 전세값은 2017년 9월 2억4063만원에서 지난달 3억3855만원으로 40.7% 증가했다. 당시 서울 아파트를 살 수 있던 금액으로는 5년이 지난 지금 전세살이도 어려워진 것이다. 같은기간 서울만 놓고 보면 아파트 평균 매매가격은 2배 가까이 올랐다. 2017년 6억3924만원이었던 서울 아파트 평균 매매가격은 5년만에 99.6% 증가한 12억7624만원으로 급등했다. 경기와 인천 역시 같은 기간 각각 87.2%, 74.9% 증가했다. 지방 5개 광역시(대전·대구·울산·부산·광주) 아파트 평균 매매가도 증가했다. 지난달 기준 매매가격은 3억9928만원으로 2017년(2억6522만원) 대비 50.5% 증가했다. [서울=뉴스핌] 윤창빈 기자 = 서울 송파구 공인중개사에 붙어있는 아파트 매매 시세표의 모습. 2022.02.11 pangbin@newspim.com ◆ "시세 대비 크게 낮은 급매물 거래…2017년 수준 하락 어려울 것" 자금 여력을 갖춘 실수요자의 경우 급매물 거래를 통해 내 집 마련에 나설 여지가 커진 상황이다. 다만 내년까지 금리인상 가능성이 있어 시세 대비해 크게 낮아진 매물만 간간히 거래될 가능성이 크다. 여경희 부동산R114 연구원은 "내 집 마련이 급한 실수요자들이 있어 시세 대비 10% 이상 하락한 매물들 가운데 굉장히 저렴한것 위주로만 꾸준히 거래가 될 것"이라며 "다만 내년 주택 경기도 어려울 것이라고 보는 시각이 있어 절대적으로 매수세가 크게 늘진 않을 것으로 전망된다"고 내다봤다. 여 연구원은 "그동안 집값이 많이 올랐지만 대출이 여의치 않은 부분이 있다"며 "수도권 같은 경우는 조정대상지역이나 투기과열지구로 묶여 있는 지역이 있다보니 지방보다 수요는 많은데 대출은 받기 어렵고, 가격은 더 높아 매수자들 진입장벽을 높이는 요인이 될 수 있다"고 설명했다. 그러면서 "금리 인상에 물가까지 오르는 상황에서 연소득을 한푼도 안쓰고 모아야 집한채를 살 수 있는 수준이 됐다"면서 "아직까지 매수하기에는 주택 가격이 심리적으로 높다고 인식될 수 있다"고 덧붙였다. 다만 2017년도 수준 정도까지 큰 폭으로 집값이 하락하긴 어려울 것이란 전망이 나온다. 여 연구원은 "우리나라 대부분 자산이 부동산 가운데서도 주택에 집중돼있다"면서 "2017년도 수준까지 하락한다면 대출 원리금 상환이 어려워진 하우스 푸어 등 사회적으로 문제가 되는 부분이 있을 것"이라고 말했다. min72@newspim.com 2022-10-10 06:01 尹대통령 지지율, '지지층 결집'에 0.8%p 소폭 반등 32% "美증시, 이번 어닝시즌에 더 떨어진다…애플 실적이 관건" [단독] 경찰 출석하는 박홍률 목포시장...공직선거법위반 혐의 피소 삼성전자 입주한 키이우 건물, 러 미사일에 피격 삼성바이오, 이르면 내일 4공장 가동…이재용 현장 방문 가능성 [주요포토] '하이서울패션쇼, '3년 만에 직관' 법제사법위원회의 감사원 국정감사 한글날 연휴 끝...쌀쌀한 출근길 코스피 2%대 급락, 원·달러 환율 20원대 급등 노동당 77주년 창건일, 고요한 북한 '서울을 달리다' 3년만에 열린 서울세계불꽃축제 안다 TV 영상 [영상] 유병호, '대통령실 문자 논란' 첫 해명..."송구하긴 하지만 정상적 의사소통" 투자직GAM 영상 [투자직감] ①쿠팡, 미국 공모주 물림의 법칙? 회사소개 주요상품 사업제휴 개인정보취급방침 청소년보호정책 고충처리제도 수용자권익보호위원회 이용약관 광고문의 페이스북 네이버 포스트 플립보드 카카오토픽 RSS 한국신문윤리위원회 서울시 영등포구 국제금융로 70, 미원빌딩 906호 편집국 : 02-761-4409 발행인 : 민병복 편집인 : 박승윤 뉴스핌통신등록번호 : 문화,나00032등록일자 및 발행일자 : 2018.3.22 뉴스핌등록번호 : 서울아00194등록일자 및 발행일자 : 2006.4.26 COPYRIGHT©NEWSPIM CO., LTD. ALL RIGHTS RESERVED. Top으로 이동</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈관광 재개 대비해 해외 마케팅 기지개 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|사회 제주도, 크루즈관광 재개 대비해 해외 마케팅 기지개 제주=임재영 기자 입력 2021-12-10 03:00업데이트 2021-12-10 03:53 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 대만 이어 日 대상 온라인 설명회 관광지-이색 콘텐츠 등 정보 제공 크루즈 관광이 한창이던 시기에 제주를 방문한 관광객들이 크루즈에서 내리는 모습이다. 코로나19로 중단된 크루즈 관광이 서서히 기지개를 켜면서 사전 마케팅 활동이 활발히 이뤄지고 있다. 제주관광공사 제공신종 코로나바이러스 감염증(코로나19)이 확산되면서 한동안 주춤했던 제주지역 크루즈 관광이 다시 손님 맞을 준비가 한창이다. ‘오미크론 변이’가 새로운 변수로 등장했지만 크루즈 업체와 관광업계 등은 관광 정상화에 대비해 해외 마케팅에 적극 나서고 있다. 제주도와 제주관광공사는 7일 일본 크루즈 관계자를 대상으로 온라인 설명회를 가졌다. 대만 여행업계에 이어 두 번째로 가진 설명회다. 국내 크루즈 관광이 다시 정상화되면 대만과 일본에서 출발하는 크루즈 선박이 제주도로 들어올 가능성이 높아 두 나라를 대상으로 사전 마케팅에 나선 것이다. 크루즈관광은 지난해 3월 사실상 중단됐다. 하지만 방역 안전 지역에 대한 여행과 크루즈 방역 협약이 구축됨에 따라 대만은 4개월여 만에 다시 시작됐다. 일본도 올해 연안 크루즈 관광을 허용했다. 설명회는 크루즈 선사, 여행사 관계자 등을 대상으로 진행했다. 대만·일본 관광객이 선호하는 △꽃 테마 관광지 △코로나19 이후 새로 발굴한 관광지 △이색 체험 콘텐츠 등에 대한 정보를 제공했다. 대만의 크루즈 시장 규모는 38만 명 정도다. 일본은 29만 명 정도인데 두 나라 모두 크루즈 관광 수요가 높은 편이다. 지난달에는 제주도 주최로 ‘2021 아시아 크루즈 리더스 네트워크(ACLN) 데이’ 행사가 온라인으로 열렸다. 백현 롯데관광개발 사장은 “크루즈 시장이 열리더라도 바로 목적지에 가지 않고 오랜 시간 다양한 국가를 잠시 들르는 기항보다는 방역이 잘 이뤄지는 국가에 집중될 가능성이 높다”며 “선내와 터미널에 신선한 외부 공기를 유입시키는 순환시스템, 비대면 입출국 시스템 등을 갖추고 정부, 선사, 여행사 등의 협력으로 고객이 신뢰하는 방역 인증을 해야 크루즈관광이 살아난다”고 말했다. 제주도는 얼마 전 내년도 제주항과 강정항에 들어올 크루즈선 124척의 입항 일정을 확정했다. 하지만 선박을 대는 자리를 배정한 것만으로 크루즈가 제주에 다다를 수 있을지는 불투명하다. 정부는 지난해 2월부터 외국 국적의 크루즈 입항 금지 조치를 시행하고 있다. 지난해 제주항 295편, 강정항 200편 등 495편의 크루즈 입항이 취소됐으며 올해도 제주항 213편, 강정항 118편 등 331편의 입항 일정이 모두 철회됐다. 제주를 찾은 크루즈는 2016년 507회(120만9106명)로 정점을 찍은 뒤 2019년에는 29회(4만4266명)만 방문했다. 사드(THAAD·고고도미사일방어체계) 사태 등으로 외국인 관광객이 급감한 것이다. 고은숙 제주관광공사 사장은 “단계적 일상 회복(위드 코로나)이 시작된 만큼 크루즈 산업도 다시 기지개를 켤 것이라는 기대감이 살아나고 있다”며 “대만과 일본의 크루즈 시장 개척을 위해 2017년부터 공을 들였는데 앞으로도 공격적인 마케팅을 하겠다”고 밝혔다.제주=임재영 기자 jy788@donga.com#제주도#크루즈관광#해외 마케팅 구독 임재영 기자 동아일보 광주호남취재본부 jy788@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 2 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 3 해외서 주목받은 ‘K-방산’…“놀랍다, 나였더라도 K9 도입” 4 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 5 [단독]‘제트기류’에 美뉴욕발 직항편 중간 착륙…‘테크니컬 랜딩’ 늘어날수도 6 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 7 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 8 외국인 고액체납자 절반, 이미 출국… 강제 징수할 방법 없어 9 같은 번호판 2개…간적 없는 곳서 주차위반 “7달째 영문 몰라” 10 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 최신기사 아직 ‘콩나물 교실‘ 많은 현장…중학교 10학급 중 4학급이 ‘과밀학급’ 김주형은 될성부른 나무…한국 무대서도 최연소 기록 지난해 ‘로드킬’ 3만7000건 중 20% 영남권서 발생…고양이 최다 軍동원령에 러시아 여론 악화…“국민, 전쟁 비용에 눈뜨기 시작” KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 4 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 5 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 탐나오, 영세 관광사업체의 든든한 지원군 역할 톡톡 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 카카오채널 RSS 모바일보기 맑음서울 15.0℃ 구름조금제주 19.7℃ 구름많음고산 16.7℃ 구름조금성산 17.9℃ 구름많음서귀포 19.7℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 사회 홈 사회 제주도 탐나오, 영세 관광사업체의 든든한 지원군 역할 톡톡 김현석 기자 kim@jejutwn.com 등록 2021.12.20 16:08:28 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 공공플랫폼 운영으로 제주 영세관광사업체의 온라인 마케팅 비용 절감 효과 [제주교통복지신문 김현석 기자] 제주여행 공공플랫폼 ‘탐나오’가 코로나19 장기화로 침체된 제주 관광 활성화와 영세 관광사업체의 온라인 판매수수료 절감에 효자 노릇을 톡톡히 하고 있다. 탐나오는 제주도에서 지원하고 제주도관광협회가 운영하는 공공플랫폼으로 2016년 1월 19일에 처음 문을 열었다. 특히 탐나오는 대형 온라인 쇼핑몰과 소셜커머스에 지출되는 광고료 등을 줄여 관광사업체의 온라인 판매를 지원하기 위해 구축됐다. 16만 명의 회원을 보유한 탐나오는 도내 1,628개 업체가 입점해 있으며 항공권, 렌터카, 숙박, 관광지, 특산품, 기념품, 체험, 맛집 등 제주여행과 관련된 전반적인 상품(7,443개)을 홍보·판매하고 있다. 탐나오를 이용하면 ▲회원가입 시 사용할 수 있는 8종 할인쿠폰 제공 ▲국내 항공 발권 수수료 무료 ▲80여 개 렌터카 업체 실시간 가격비교 ▲숙박 특가전 및 이벤트 참여 혜택을 누릴 수 있다. 코로나19 위기극복을 위해 영세업체 및 관광객을 대상으로 ▲특산/기념품 배송비 지원(2,500원) ▲빅할인이벤트 ▲상세 페이지 무료제작 ▲매월 5% 할인지원 기획전 ▲상품 사진촬영 지원 등을 추진해왔다. 코로나19로 침체된 관광산업을 활성화하기 위해 ▲추석기획전 ▲SNS 제주상품체험단 진행 ▲서울 지하철 스크린도어 광고 ▲네이버, 카카오 등 포털을 이용한 광고 등 공격적인 마케팅으로 입점업체가 더 많은 상품 판매할 수 있도록 지원하고 있다. 또한 사이트 내 판매뿐 아니라 네이버쇼핑, 라이브커머스 진행 등 업체 경쟁력 강화를 위한 다양한 판로확대도 모색하고 있다. 탐나오의 공격적인 전략에 힘입어 매년 판매성과가 상승하고 있고, 11월 기준 올해 72억 원을 판매해 전년 11월 대비 36% 증가를 기록하는 등 높은 성장세를 이어가고 있다. 탐나오의 판매수수료는 대형 온라인여행사(20% 내외) 대비 약 15% 낮은 5.5%를 적용해 2021년 동안 약 10억 원의 수수료 절감 효과를 거두는 등 영세 관광사업체의 부담 해소 및 온라인 판매 경쟁력 강화에 기여하고 있다. 앞으로 ▲탐나는전을 연계한 결제 기능 제공 ▲라이브커머스 및 SNS(인스타그램, 페이스북 등) 쇼핑연계 ▲고객관계관리(CRM) 시스템 ▲지역사회공헌 포인트제를 도입해 고객 재구매를 촉진하고, 신규 입점사 상생을 위해 ▲3개월 수수료 무료 및 상품 5% 할인 등으로 제주 관광객 및 관광사업체의 혜택을 강화할 예정이다. 김승배 제주도 관광국장은 “탐나오를 통한 공적기능 제공으로 도내 관광사업체의 과도한 판매 수수료와 광고비 부담을 덜어드리고 중소 관광사업체의 경영환경 개선에 노력하겠다”고 말했다. 김현석 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 2 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 3 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 4 제주특별자치도, 11일부터 코로나19 2가백신 동절기 추가접종 시작 5 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 6 서귀포시 동부보건소, 가을철 농작업 및 야외활동 시 진드기 조심하세요! 7 제주시, 6.25 참전유공자 유족 무성화랑 무공훈장 수여 8 제주시, 오는 11월 24일부터 '일회용' 종이컵·빨대 등 제공 및 사용 금지한다 9 한국미술협회 서귀포지부, 2022 회원 정기전 진행 10 제주시 한경도서관, '냅킨 아트 소품 클래스' 프로그램 참여자 선착순 모집 실시간 뉴스 2022-10-11_TUE 서귀포시, 사무관 승진의결자 8명 승진임용 11:33 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 11:32 서귀포시 성산읍, 가로등에 디자인을 입혀 불법광고물을 뿌리 뽑는다 11:31 서귀포시, 다양한 국가의 진로 탐색으로 청소년의 꿈의 시야를 넓히다. 11:30 서귀포시, 2022년 하반기 주민등록 사실조사 실시 11:26 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 11일 14시 57분 최상단으로</t>
+  </si>
+  <si>
+    <t>오영희 제주도의원 ‘제주관광미래성장포럼’ 토론회 개최 &lt; 뉴스 &lt; 제주본부 &lt; 전국뉴스 &lt; 기사본문 - 시사포커스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 14:54 (화) 로그인 회원가입 후원하기 Family Site 시사신문 땡큐뉴스 포커스tv post blog facebook kakao instagram 시포TV 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 정치 국제 사회 문화 머니&amp;머니 경제정책 산업 소비자경제 금융 테크 숫자콕 시사&amp;이슈 머니&amp;머니 핫토픽 어린이 일자리 바이러스 전국뉴스 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 칼럼 인터뷰 기자수첩 포토뉴스 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 보도자료AD 전체메뉴 버튼 검색하기 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 오영희 제주도의원 ‘제주관광미래성장포럼’ 토론회 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국뉴스 제주본부 뉴스 오영희 제주도의원 ‘제주관광미래성장포럼’ 토론회 개최 기자명 김종필 기자 입력 2021.12.16 11:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 제주 스마트관광 육성 방안 및 파급효과 분석 - 제주도의회 오영희 의원(국민의힘, 비례)/ 김종필기자 [제주본부 / 김종필 기자] 제11차 제주관광미래성장포럼 토론회가 16일 오후 2시 제주도의회에서 개최된다. 이날 토론회는 제주대학교 경제학과 강기춘 교수와 경영학과 조부연 교수가 공동으로 주제발표을 시작으로 좌장은 제주관광미래성장포럼 부대표 양병우 의원이 맡는다. 이어 (사)관광문화산업진흥원 김형길 원장, 유니텍코리아 김홍규 대표, 제주대학교 관광경영학과 홍성화 교수, 제주대학교 관광경영학과 강주현 교수, 제주도 관광정책과 정순 팀장, 제주도 디지털융합과 박찬혁 팀장이 토론자로 나선다. 제주관광미래성장포럼 대표 오영희 의원(국민의힘, 비례)은“이번 토론회는 제주 스마트관광 육성 방안과 파급효과 분석을 통해 제주에 스마트관광 경쟁력을 제고하기 위한 방안을 모색하는 자리“라며”제주는 스마트관광·드론·빅데이터 활용 서비스는 빠른 속도로 진행되고 있지만 VR·AR·메타버스와 스마트관광도시 활용 서비스는 미흡하다“며 토론회의 취지를 밝혔다. 한편 제주관광미래성장포럼은 오영희 의원을 비롯해 양병우, 고태순, 강연호, 김창식, 이경용, 한영진 의원 등 7명이 활동하고 있다. 관련기사 제주도, 재난문자 ‘카카오톡 기반’ 알림톡 제공 제주도, 내년도 예산안 499억 감액 제주도, 내년 지방공무원 임용시험 일정 공고 제주도, 쓰레기 불법투기·소각행위 집중 단속 구만섭 제주지사 대행 “제주도 지진 안전지대 아냐...대응체계 강화” "제주 학생, 수능시험 수학 표준점수 12년째 전국 1위" 제주, 18일부터 사적모임 4명...‘식당·카페’오후 9시 제주도의회 이승아·양영식 의원 ‘지방의회복지대상’수상 제주도의회 오영희 의원, ‘지역화폐 발행 및 운영에 관한 조례’ 개정 추진 제주도, '올해 사회복지 공무원' 5명 선정 제주 한림서 상괭이 사체 발견...이달에만 12마리 송재호 의원 “제주 도두하수처리장 현대화사업 추진” 오영희 의원, 대한결핵협회 ‘우수의원상’ 수상 오영희, 제주 1호 ‘농촌들녘 자전거 탐방길’개통...한원리 주민 감사패 수상 오영희, 제주도 성년후견제도 이용 활성화 지원 조례 발의 위성곤, 국정감사 우수의원 선정 양영식, 제주도 마이스산업 육성 근거 마련 키워드 #시사포커스 #시사포커스TV #제주관광미래성장포럼 #제주도 #제주스마트관광 #드론 #빅데이터 김종필 기자 sisafocus08@sisafocus.co.kr 다른기사 보기 저작권자 © 시사포커스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 [포토] 3년 만에 정조대왕 능행차하시다. [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 7일 15일 30일 1 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 2 [포토] 3년 만에 정조대왕 능행차하시다. 3 [포토]K-컬쳐 퍼레이드, 나드리 나온 시민들 즐거운 동참. 4 눈속임 설계 '다크패턴'…소비자 보호 위한 법 마련 필요 5 3년간 전기車 3배 늘었지만…고속도로 충전시설 '턱없이 부족' 6 [기획] 국감 화두로 떠오른 문재인, 민주당 ‘文 구하기’ 성공할까 7 인터 마이애미, 맨유서 입지 흔들리는 호날두 내년 1월 영입 제안? 8 [국감] 모다모다샴푸 위해성 성분 사용 논란, 보건복지위 국감장 후끈 9 [기획] 게이트 전쟁? 與 “성남FC·새만금 게이트” vs 野 “대감 게이트” 10 [국감] 지성호 “난 인권유린국 출신, 기업 자유 보장‧근로자 보호하는 한국에 충격” 1 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 2 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 3 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 4 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 5 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 6 위르겐 클롭 감독, 현재 분위기로는 리버풀서 경질될 것… 팬들도 외면 7 [포토] 3년 만에 정조대왕 능행차하시다. 8 [포토]K-컬쳐 퍼레이드, 나드리 나온 시민들 즐거운 동참. 9 공유 PM 업체들, ‘블루오션’ 전기자전거 사업 뛰어든다 10 눈속임 설계 '다크패턴'…소비자 보호 위한 법 마련 필요 1 '청춘블라썸' 윤현수-오유진, '완벽재현' 캐릭터 포스터 전격 공개 2 [개천절 유감] 단군을 경축하는 자리에 중국 임금을 성군이라고 발언? 3 [포토] 꽃말 '단란한 일가' 보라빛 버베나 꽃밭에서 추억만들기..... 4 [기획] 이준석 불송치에 상황 반전된 국힘, 윤리위도 '무리한 징계' 도마위 5 [포토] 꽃말 '섹시한 여인' 가우라 꽃밭에서 아름다운 데이트를... 6 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 7 [포토] 흥인지문 앞에서 육의전 축제 8 [기획] 다음은 한동훈?, 민주당 윤석열 정부 '불신임' 전략 꾀하나 9 [기획] 진퇴양난에 빠진 윤 대통령, 거센 野와 돌아선 민심에 어쩌나 10 '말만 하면 역풍' 이재명, '형수 소환' 성일종 "손해 볼 공격 그만해" 단독기사 의정부시 녹양역세권 개발, '토지주 vs 조합' 5년 소송 끝에 조합 승소 [경기북부 /고병호 기자] 경기 의정부시와 경기도가 도시개발계획에 따라 지정 승인한 의정부시 녹양역세권 개발 사업 중 주거지역에 해당하는 녹양동 주상복합 스카이59조합아파트 사업은... 요거프레소 방지법, 발의 초읽기…가맹본부 예상매출액 과장 엄단 남양주시체육회장, 본인 운영 법인서 횡령·분식회계 논란 사건사고 법원, 초등학생 성추행한 스쿨버스 운전사… 징역 7년 선고 경북소방, 포항제철소 화재 ···전국동원령 1호 발령 경찰,불법 대마잎 판매 일당 무더기 검거 경북 봉화 광산서 붕괴 사고 발생 공군 기강 추락···훔친 차로 고속도로 '음주 사고' 연예·방송 스포츠 엑소 첸, 3년 만에 신곡 '사라지고 있어' 31일 발매 [시사포커스 / 이청원 기자] 그룹 엑소 첸이 3년 만에 새 솔로 앨범으로 귀환한다.11일 소속사 측은 첸이 오는 31일 세 번째 미니앨범 '사라지고 있어 (Last Scene)'... 드림캐쳐, '아포칼립스'로 6개월 만에 컴백 이현이, SBS플러스 '우아달 리턴즈' MC 발탁…10일 첫방 엘링 홀란드, 한니발 렉터 스타일 식단 공개로 충격… 20골 비결? [시사포커스 / 이근우 기자] 엘링 홀란드(22, 맨체스터 시티)의 식단에 현지 팬들이 큰 충격을 받았다.영국 매체 ‘데일리 메일’은 10일(한국시간) “홀란드는 이번 시즌 벌써 ... 인터 마이애미, 맨유서 입지 흔들리는 호날두 내년 1월 영입 제안? 칼럼 윌슨, “골든 부트? 이미 사라졌고 실버 부트 필요”… 홀란드 독주 농담 건강 여행 인터뷰 시민단체 '민주당, 이재명 후보 교체하라', 왜? [시사포커스 / 이혜영 기자] 친문(문재인)성향의 시민단체인 '스페이스민주주의'가 더불어민주당을 향해 불만을 표하면서 이재명 대선후보 사퇴를 촉구하고 나선 가운데 김연진 스페이스민... '탈당' 박지효 "민주당에 비판·자성 들어설 자리 없어" 하단영역 하단메뉴 신문사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 Top 매체정보 발행처 : (주)일간시사신문 제호 : 시사포커스 서울특별시 마포구 와우산로3길 3 (시사포커스 빌딩) 대표전화 : 02-323-2223 등록번호 : 서울 아 00397 등록일자(발행일자) : 2007-07-10 대표이사 : 김명자 발행·편집인 : 김명자 청소년보호책임자 : 김명자 Copyright © 2022 시사포커스. All rights reserved. mail to sisafocus02@sisafocus.co.kr 위로 전체메뉴 전체기사 시포TV 전체 시사&amp;이슈 머니&amp;머니 라이프 엔터테인먼트 시사&amp;이슈 전체 정치 국제 사회 문화 머니&amp;머니 전체 경제정책 산업 소비자경제 금융 테크 포토뉴스 전체 포토 시사&amp;이슈 머니&amp;머니 엔터테인먼트 전국뉴스 핫토픽 시사만평 연예·스포츠 전체 연예 스포츠 숫자콕 전체 시사&amp;이슈 머니&amp;머니 핫토픽 전체 어린이 일자리 바이러스 전국뉴스 전체 경기북부 경기서부 경기남부 대구경북본부 울산경주 전남광주 제주본부 대전·충남 전남동부 전남서부 오피니언 전체 칼럼 인터뷰 기자수첩 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 규모 4.9 역대급 지진...관광객들 긴급대피, 여진에 촉각 &lt; 정치/사회 &lt; 기사본문 - 뉴시안 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 14:56 (화) 로그인 광고문의 제보 전체메뉴 검색 기사검색 검색 블로그 카카오스토리 인스타그램 페이스북 mobile 기사의 가독성을 해치는 팝업, 백버튼 광고 등기타 수익성 광고를 지양하는 클린미디어입니다. 기획 산업 산업 유통 건설/부동산 머니 ICT 모바일/통신 전기/전자 게임 정치/사회 정치 사회 날씨 골프&amp;스포츠 오피니언 전체서비스 All 기획 특별기획 산업 산업 유통 건설/부동산 머니 ICT 모바일/통신 전기/전자 게임 정치/사회 정치 사회 날씨 골프&amp;스포츠 오피니언 보도자료 인사동정 보도자료 본문영역 현재위치 정치/사회 제주도 규모 4.9 역대급 지진...관광객들 긴급대피, 여진에 촉각 입력 2021.12.15 00:07 수정 2021.12.15 00:10 댓글 0 가 가 바로가기 기사스크랩하기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 네이버블로그(으)로 기사보내기 URL복사(으)로 기사보내기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 네이버블로그(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ［뉴시안= 김진영 기자］제주도에서 지진이 발생해 주민들이 긴급대피하는 등 재난상황이 연출됐다. 지진은 제주 서귀포시 서남서쪽 41㎞ 해역에서 규모 4.9의 이번 지진은 기상청이 1978년 관측한 이후로 역대 11번째 규모다. 기상청은 14일 오후 5시19분 제주 서귀포시 서남서쪽 41㎞ 해역에서 규모 4.9의 지진이 발생했다고 밝혔다. 기상청은 추가 여진 발생 가능성이 있다고 경고하면서 진앙은 북위 33.09도, 동경 126.16도이며 지진 발생 깊이는 17㎞라고 밝혔다. 이날 지진은 오후 5시19분14초 발생해 마라도에서 발생한지 4초 후에 최초로 관측됐다. 자동으로 감지되는 지진조기경보는 최초 관측 후 12초 만에 작동했다. 지역별 계기진도는 제주5, 전남 3, 경남과 광주, 전북이 2다. 진도 5는 거의 모든 사람이 진동을 느끼고 그릇, 창문 등이 깨지기도 하며 불안정한 물체는 넘어지는 정도다. 유감신고 현황은 이날 오후 5시43분까지 제주 50여건, 전남 27건, 광주 4건, 대전 4건, 부산 2건, 서울 2건이다. 여진은 이날 오후 7시30분 기준 총 9회 발생했으며, 평균 1.6~1.7 규모이다. 기상청 관계자는 “규모 4.9 지진의 경우 여진이 상당히 긴 기간 동안 발생할 수 있으며, 그동안 발생 사례를 보면 수개월에서 1년 정도까지 가능하다"고 설명했다. 기상청은 이번 지진이 한반도 주변 남해와 서해 해역에서 주로 발생하는 주향이동 단층운동으로 분석하고 있다. 단층 방향은 남북 또는 북서다. 지진을 발생시킨 단층 움직임을 해석해 계산한 모멘트 규모(Mw)는 4.8이다. 이날 지진은 올해 한반도에서 발생한 지진 규모 1위에 해당한다. 특히 그간 제주남부해역에서 4.0 이상의 지진이 발생한 적 없었다. 또한 이날 지진은 1978년 기상청 관측 이후로는 11번째 규모다. 이와 함께 진앙반경 50㎞ 내 발생 지진 가운데 2005년 6월15일 제주시 고산 남쪽 26㎞ 해역에서 발생한 3.9 규모 지진 이후 16년 만에 가장 크다. 기상청은 이번 지진으로 인한 지진해일 발생 가능성은 없는 것으로 보고 있다. 이번 지진이 4.9 규모이고 주향이동단층이라 지진해일을 일으킬 정도의 에너지를 갖고 있지 않다는 것이 기상층의 설명이다. 아울러 기상청 관계자는 "지진 발생 인근 지역은 지진동을 느낄 수 있다"며 "안전에 유의하기 바란다"고 전했다. 김진영 기자 mc714@newsian.kr 기자명 김진영 기자 다른 기사 더보기 국민의힘, 정영학 녹취록 공개 "이재명이 대장동 몸통" [속보] 러시아-우크라 회담 시작 “동등한 위치 협상 어려울 것“ 민주당-국민의힘, 대장동 문건 VS 김건희 도이치모터스 재직 대공방 문 대통령, 러시아 침공 유감 표명 “미국의 러시아 경제제재 동참” 이재명, ‘안철수 끌어안기’ 애는 쓰지만... 관련기사 [긴급점검] 오미크론 사실상 ‘우세종’ 다름없어…‘깜깜이 무증상’ 폭증 [현장파일] 대장동 수사 사실상 끝...검찰수사는 진전없고, 특검은 기약없고 [현장파일] 윤석열 처가 리스크 다시 주목... 검찰, 양평땅 개발 특혜 의혹 정조준 [여의도파일] '극우' 논란 노재승 국민의힘 공동선대위원장 사퇴가 남긴 것 [현장파일] 윤우진 구속, 윤석열로 옮겨붙나 김진영 기자 mc714@newsian.kr 다른기사 보기 저작권자 © 뉴시안 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 많이 본 뉴스 트레이더스, 이름 바꾸고 유료 멤버십 도입...코스트코 정조준 맘스터치, ‘제2의 제외킹’ 되나…“행사 제외 매장만 480여개” 네이버, 2.3조 포쉬마크 인수에 주가는 9% 급락 아이폰15 '버티기' 이유 생겼다…"'다이나믹 아일랜드' 전 모델 적용" 아이폰14 사전예약 개시, 프로모델은 한달 기다려야 [기획-MZ, 너 누구니] ⑦ "평생직장이요? 꼰대들 생각이지요" [날씨] 한글날 연휴 흐리고 쌀쌀…일요일 낮부터 전국 비 소식 기획 [기획-MZ, 너 누구니] ⑪ 우리는 환경에 진심인 '엠제코'다 [기획-MZ, 너 누구니] ⑩ 인류의 역사 '결혼', 한국에서 종말맞나 [기획-MZ, 너 누구니] ⑨ '갓생'·'소울리스좌'...요즘 애들의 인생리부팅 하단영역 하단메뉴 매체소개 독자센터 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04195) 서울특별시 마포구 만리재로 14 (한국사회복지회관 르네상스타워) (공덕동 456) 1701호 대표전화 : 02-332-4114 팩스 : 02-322-9119 청소년보호책임자 : 양미자 명칭 : 줌미디어(주) 제호 : 뉴시안 등록번호 : 서울 아 02050 등록일 : 2012-03-30 발행일 : 2012-09 회장 : 우찬웅 편집인 : 박용채 발행인 : 조규성 마케팅국장 : 반재동 (010-5278-0412) 고문변호사 : 강길 (법무법인한세, 대표변호사) Copyright © 2022 뉴시안. All rights reserved. mail to desk@newsian.kr 위로 전체메뉴 전체기사 산업 전체 산업 유통 건설/부동산 머니 ICT 전체 모바일/통신 전기/전자 게임 정치/사회 전체 정치 사회 날씨 골프&amp;스포츠 오피니언 보도자료 전체 인사동정 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 대만·일본 크루즈 관광객 유치 재개 시동 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도, 대만·일본 크루즈 관광객 유치 재개 시동 입력 : 2021-12-01 01:00:00 수정 : 2021-11-30 14:46:40 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 2019년 3월 제주 서귀포시 강정항에 첫 입항한 크루즈. 제주도 제공 제주도가 크루즈관광 재개에 대비해 대만과 일본인 관광객 유치에 시동을 건다. 제주도와 제주관광공사는 대만과 일본 크루즈 관계자를 대상으로 온라인 설명회를 진행하고 있다고 30일 밝혔다. 신종 코로나바이러스 감염증(코로나19) 대유행으로 2020년 3월부터 전면 중단한 크루즈 입항이 방역 안전지역과 크루즈 방역 시스템 구축에 따라 2020년 7월 대만에서 재개했다. 이후 일본도 올해 자국 내 연안 크루즈관광을 시작했다. 이에, 향후 국내 크루즈 관광을 재개할 경우 대만과 일본발 크루즈의 우선 입항이 예상됨에 따라 두 지역을 대상으로 사전 마케팅을 펼치고 있다. 제주관광공사는 30일 대만 기륭항을 모항으로 운항하는 선사와 선사별 연합 여행사 핵심 관계자를 대상으로 온라인 설명회를 가졌다. 이어 다음달 7일 일본발 모항 크루즈 선사와 주요 대형 여행사 기항 관광 담당자를 대상으로 진행할 예정이다. 설명회에선 코로나19 이후 생겨난 신규 관광지 및 제주의 이색 체험 콘텐츠와 대만·일본 관광객이 선호하는 꽃 테마 관광지 등을 홍보하고 있다. 설명회는 향후 국제 크루즈의 제주 입항 시 관련 콘텐츠들이 반영, 양질의 기항관광이 이뤄질 수 있도록 크루즈 관광객 맞춤형 콘텐츠로 구성했다. 대만 크루즈 시장 규모는 38만명으로 아시아 2위, 일본은 29만명으로 4위 등 잠재 크루즈 관광객이 많다. 특히 시장 구조와 상품 구성 또한 양질로 운영돼 제주 크루즈 시장의 문제점을 개선하기 위한 마케팅 타깃으로도 적합하다고 판단하고 있다. 제주관광공사 관계자는 “공사는 한국과 인접한 지역인 대만과 일본의 크루즈 시장 개척을 위해 2017년부터 꾸준한 마케팅 활동을 펼쳤고, 그 결과 중국 외 크루즈의 제주 입항 횟수가 꾸준히 증가했다”며 “앞으로도 지속적인 네트워킹을 통한 제주 기항 유치 확대를 위해 공격적인 마케팅을 추진해 나가겠다”고 밝혔다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20211130510368 0101070800000 0 2021-12-01 1:0:0 2021-11-30 14:46:40 0 제주도, 대만·일본 크루즈 관광객 유치 재개 시동 세계일보 임성준 9a19e7e4-78a9-43d0-9d4a-245149669a84 jun2580@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도-관광공사, 10일부터 아시아 웰니스 관광 포럼 개최 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|사회 제주도-관광공사, 10일부터 아시아 웰니스 관광 포럼 개최 임재영 기자 입력 2021-12-08 03:00업데이트 2021-12-08 03:00 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 제주도와 제주관광공사가 해외 주요 사례를 통해 제주 웰니스 관광의 방향을 모색하는 ‘아시아 웰니스 관광 국제포럼’을 10일부터 이틀간 개최한다. 웰니스는 웰빙(well-being)에 행복(happiness)과 건강(fitness)을 합친 용어다. 웰니스 관광은 정신적 안정과 신체적 건강의 조화를 이루는 데 목적이 있다. 포럼은 ‘자연·사람·문화가 어우러진 아시아 대표 웰니스 여행지를 향해’를 주제로 신종 코로나바이러스 감염증(코로나19)으로 달라진 세계 관광의 흐름을 살펴본다. 제주의 웰니스 관광 산업 생태계 조성을 위한 방안도 논의한다. 포럼은 유튜브 채널 ‘웰니스 제주’를 통해 볼 수 있다. 10일 열리는 오프닝 세션 ‘포스트 코로나 시대, 세계 관광 패러다임의 변화와 흐름’에서는 인도네시아, 네덜란드, 일본 등의 웰니스 관광 사례가 발표되고 국가 및 지방자치단체 차원의 웰니스 관광 산업 육성 전략에 대한 의견을 나눌 예정이다. 11일에는 ‘제주 관광의 핵심 산업으로 웰니스 관광 산업 생태계 조성 방안’을 주제로 토론한다. 임재영 기자 jy788@donga.com#제주도#제주관광공사#아시아 웰니스 관광 국제포럼 구독 임재영 기자 동아일보 광주호남취재본부 jy788@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 2 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 3 해외서 주목받은 ‘K-방산’…“놀랍다, 나였더라도 K9 도입” 4 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 5 [단독]‘제트기류’에 美뉴욕발 직항편 중간 착륙…‘테크니컬 랜딩’ 늘어날수도 6 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 7 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 8 외국인 고액체납자 절반, 이미 출국… 강제 징수할 방법 없어 9 같은 번호판 2개…간적 없는 곳서 주차위반 “7달째 영문 몰라” 10 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 최신기사 아직 ‘콩나물 교실‘ 많은 현장…중학교 10학급 중 4학급이 ‘과밀학급’ 김주형은 될성부른 나무…한국 무대서도 최연소 기록 지난해 ‘로드킬’ 3만7000건 중 20% 영남권서 발생…고양이 최다 軍동원령에 러시아 여론 악화…“국민, 전쟁 비용에 눈뜨기 시작” KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 4 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 5 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 관광통역안내사 자연생태 관광교육 실시 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 카카오채널 RSS 모바일보기 맑음서울 15.0℃ 구름조금제주 19.7℃ 구름많음고산 16.7℃ 구름조금성산 17.9℃ 구름많음서귀포 19.7℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 종합이슈 홈 종합이슈 제주도 관광통역안내사 자연생태 관광교육 실시 신혜정 기자 shin@jejutwn.com 등록 2021.12.10 16:20:14 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 [제주교통복지신문 신혜정 기자] 한국관광통역안내사협회(KOTGA)는 제주지역에서 전문적으로 활동 중인 관광통역안내사 18명을 대상으로, '스토리텔링 기반을 둔 관광지 해설기법 양성'을 위해, 지난달 22~24일까지 자연생태관광을 주제로 양성교육을 실시했다고 밝혔다. 이번 양성교육에 참여한 관광통역안내사들은 '경북 예천(회룡포, 용문사)', '경북 문경(고모산성, 문경새재 도립공원, 오픈세트장, 단산 모노레일)', '충북 제천(옥순봉 출렁다리, 충주호)', '강원 영월(관풍헌, 청령포, 장릉, 한반도지형)”을 방문하여 현장실습 및 체험교육 등을 통해, 관광통역안내사로서 자질향상과 더불어 더욱 성장할 수 있는 계기가 됐다. 코로나-19를 대비하여, 관광통역안내사들의 마스크 착용과 체온 검사, 손 소독제 사용 및 사회적 거리두기 등을 실천하여, 안전한 관광여행을 위한 방역지침을 철저히 준수하며 진행됐다. 한국관광통역안내사협회(KOTGA)는 문화체육관광부 인가 비영리법인으로, 관광통역안내사는 관광진흥법에 근거하여 우리나라 역사와 문화를 올바르게 알리고 나누며, 세계와 소통하는 대한민국의 실질적인 민간외교관이다. 제주교통복지신문, TW News 신혜정 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 2 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 3 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 4 제주특별자치도, 11일부터 코로나19 2가백신 동절기 추가접종 시작 5 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 6 서귀포시 동부보건소, 가을철 농작업 및 야외활동 시 진드기 조심하세요! 7 제주시, 6.25 참전유공자 유족 무성화랑 무공훈장 수여 8 제주시, 오는 11월 24일부터 '일회용' 종이컵·빨대 등 제공 및 사용 금지한다 9 한국미술협회 서귀포지부, 2022 회원 정기전 진행 10 제주시 한경도서관, '냅킨 아트 소품 클래스' 프로그램 참여자 선착순 모집 실시간 뉴스 2022-10-11_TUE 서귀포시, 사무관 승진의결자 8명 승진임용 11:33 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 11:32 서귀포시 성산읍, 가로등에 디자인을 입혀 불법광고물을 뿌리 뽑는다 11:31 서귀포시, 다양한 국가의 진로 탐색으로 청소년의 꿈의 시야를 넓히다. 11:30 서귀포시, 2022년 하반기 주민등록 사실조사 실시 11:26 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 11일 14시 57분 최상단으로</t>
+  </si>
+  <si>
+    <t>제민일보·제주도 주최 2021 제주관광대상 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제민일보·제주도 주최 2021 제주관광대상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제민일보·제주도 주최 2021 제주관광대상 기자명 김봉철 기자 입력 2021.12.05 17:16 수정 2021.12.05 17:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 종합대상 '휘닉스중앙제주㈜' 제민일보ㆍ제주도 주최 2021 제주관광대상 시상식이 지난 3일 제민일보사 1층 대강당에서 열렸다. 이진서 기자 ▶관광지업 ㈜메이즈랜드 ▶숙박업 블라제리조트 ▶운수업 ㈜부민고속관광 ▶여행업 ㈜제주토박이 ▶여행안내사상 고완정·김애순 ▶공로상 고동현·한정혜 ▶관광자원화기여상 ㈜상효원 ▶특별상 김미정 제주관광대상 심사위원회(위원장 안창남, 이하 심사위원회)는 최근 제주관광 전 분야에 걸쳐 '2021 제주관광대상' 심사를 진행한 결과 종합 대상에 섭지코지 내에서 휴양콘도미니엄과 미술관, 카페 등을 운영하며 섭지코지를 명소로 만든 휘닉스중앙제주㈜(대표 이윤규)를 선정했다. 제주관광대상은 제민일보사·제주특별자치도 공동주최, 문화체육관광부 후원으로 지난 2005년부터 시상하고 있다. 제주관광산업의 건전한 기반 구축과 안정적 성장을 위한 지지대 역할을 해오며 지역의 생명산업인 관광산업에 대한 관심과 격려를 꾸준히 도민사회에 전파했다. 심사위원회는 관광지업 부문 대상에 ㈜메이즈랜드(대표 이동한)를, 숙박업 부문에 블라제리조트(대표 김명식)를 각각 선정했다. 또 운수업 부문 대상은 ㈜부민고속관광(대표 최창우)이, 여행업 부문 대상은 ㈜제주토박이(대표 하승우)에게 각각 돌아갔다. 이와 함께 △여행안내사상=고완정(국내), 김애순(국외) △공로상=고동현(제주시 관광진흥과), 한정혜(서귀포시 관광진흥과) △관광자원화기여상=㈜상효원(대표 이재영) △특별상 김미정(제주도문화관광해설사협회) 등이 수상자로 결정됐다. 시상식은 3일 제민일보사 1층 대강당에서 제민일보 양치석 대표이사 사장과 양창영 상무이사, 김승배 도 관광국장, 고은숙 제주관광공사 사장, 부동석 제주도관광협회장 등이 참석한 가운데 진행됐다. 이날 구만섭 제주도지사 권한대행을 대신해 참석한 김승배 관광국장은 "코로나19 사태를 극복해 나가는 과정에서 관광업계가 어려움을 딛고 빛나는 성과를 이뤄 모범을 보인 모든 수상자 분들께 축하와 감사의 인사를 드린다"며 "제주도는 국내·외 관광객들이 제주를 다시 찾고 관광업계가 인바운드·아웃바운드 관광 모두 회복할 수 있도록 지원하는데 최대한의 노력을 아끼지 않겠다"고 말했다. 김봉철 기자 김봉철 기자 bckim@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>오영희 제주도의원이 관광해설사 근무복을 바꾸라고 한 까닭 닫기 전체기사 최신뉴스 GAM 라씨로 영상 영상 포토 포토 정치 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사회 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 글로벌 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 중국 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 산업 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 증권·금융 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 부동산 정책 건설 분양 수익형부동산 전국 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화·연예 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 스포츠 해외스포츠 국내스포츠 축구 야구 골프 오피니언 오피니언 회사소개 CEO 인사말 뉴스핌은 주요상품 가치·철학 발자취 조직도 윤리강령 찾아오시는 길 사업·광고문의 사업제휴 광고문의 유료서비스 유료안내 결제서비스 안내 환불정책 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일주소수집거부 저작권규약 고충처리제도 수용자권익보호위원회 회원 로그인 아이디·비밀번호찾기 회원가입 로그인 뉴스핌제보 닫기 검색 패밀리 사이트 뉴스핌통신 PLUS 월간 ANDA 中文 안다쇼핑 ANDA 뉴스 닫기 전체메뉴 영상 포토 정치 경제 사회 글로벌 중국 산업 증권·금융 부동산 전국 문화·연예 스포츠 오피니언 #GAM #라씨로 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사건·사고 법원·검찰 로펌 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 재계·경영 전기·전자 자동차 ESG 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 정책 건설 분양 수익형부동산 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 해외스포츠 국내스포츠 축구 야구 골프 홈 전국 지자체 속보 한국조선해양, 3468억원 규모 LNG운반선 1척 수주배터리 핵심소재 '동박' 시장 놓고 '롯데 vs SK' 주도권 싸움[영상] 이복현 금감원장 "도이치모터스 관련 경찰에 자료 요청 오지 않았다"큐브엔터, (여자)아이들 미니 5집 'I love' 선주문 70만장 돌파코웨이, KCSI 조사 침대·정수기 만족도 1위제주 도내 사회적경제기업 총 638개소…제주도 "맞춤형 지원"[부고] 지영흔(하나은행 홍보팀장)씨 부친상에이프로젠, 휴미라 바이오시밀러 특허 출원...생산성 증대삼성전자, 웰스토리 검찰 압수수색 불복 준항고 취하안실련ᐧ자살예방 시트백커버 1800세트 전국모범운전자연합회 기증 시티랩스, '그리고'에 국내 최초 운전면허 명의도용 방지 안면인증 솔루션 공급이엔플러스, 2차전지 양산 핵심설비 반입 완료…"내년 양산 준비 순항"안성 한 지역농협서 5억원 빼돌린 직원 자수...검찰 송치[국감] 송석준 "토스·카카오페이 등 선불충전 악용 보이스피싱 4년간 310배 폭증"3분기, 국내 기업 자금조달 250조9000억원…전년比 22.2%↓[국감] 정청래 "尹대통령, 디지털 키우겠다면서 예산은 삭감? 앞뒤 안맞아"[국감] 덕수궁 석조전 대한제국역사관, 국립박물관이지만 "유물 구입비 전무"신라젠, 내일 상폐여부 결정...17만 개미 운명은?[속보] 대전경찰청, '대전 화재' 관련 현대백화점그룹 본사 압수수색 [국감] 이복현 금감원장 "보험사 GA 설립 시 부당행위 면밀히 보겠다" 더보기 오영희 제주도의원이 관광해설사 근무복을 바꾸라고 한 까닭 기사입력 : 2021년12월01일 19:30 최종수정 : 2021년12월01일 19:30 카카오톡 페이스북 트위터 카카오스토리 밴드 가 + 가 - 프린트 [제주=뉴스핌] 변준성 기자 = 현재 제주도 해설사들은 대부분 문화관광해설사와 세계자연유산해설사 등 717명이 자원봉사자 신분으로 활동 중에 있다. 해설사들은 제주관광의 얼굴로 해당 관광지에서 관광객들을 맞이하고 있지만 편리성을 이유로 대부분 아웃도어룩이나 체크무늬 자켓을 입고 해설을 하고 있다. 제주도의회의 정례회에서 이같은 복장에 대한 지적이 나왔다. '제400회 제주특별자치도의회 정례회 상임위'에서 발언하는 오영희 의원[사진=제주도의회] 2021.12.01 tcnews@newspim.com 제주특별자치도의회 문화관광체육위원회 오영희 의원(국민의 힘, 비례대표)은 '제400회 제주특별자치도의회 정례회 상임위 제3차 회의'에서 도 관광국과 세계유산본부 상대로 '해설사 운영에서 해설사들의 아웃도어룩이 제주의 상징성 있는 복장인가?'라고 질의 하고 해설사의 복장은 제주관광이미지라며 제주정체성을 나타낼 수 있는 근무장으로 바꿔야 한다"고 주장했다. 오 의원은 "타 시도의 해설사들은 그 지역의 특색을 살린 의복이나 정갈한 계량한복으로 입고 해설을 하고 있다"면서 "이런 해설사의 근무복을 위해 피복비를 지원해주고 있다"고 밝혔다. 그러면서 "제주도 문화관광해설사의 경우 활동비 교육비 등 2021년도 11억7300만원 지원되었고, 2022년도도 같은 수준인 11억6400만원이 편성되어 처우개선 향상도 필요한 실정이다"이라고 강조했다. 오 의원은 특히 "근무복 예산도 1900만원이 편성되어 예산이 남았지만, 해설사의 근무복에 대한 고려도 하지 않았고 그 중요성을 간과하고 있다"면서 "문화관광해설상 양성현황에서도 2017년 41명 양성 배출하고 2018년부터 2021년 현재까지 양성교육 없이 단 한명도 배출되지 않아 해설사 운영에서 처우와 양성교육에 문제를 드러내고 있다"고 주장했다. 제주도 하면 오름과 바다, 현무암의 검은 돌, 맑은 공기와 파란하늘이 제주를 연상시키며 이런 제주적인 것들이 제주 정체성이 담긴 민속과 연결되어 제주 브랜드로서 관광객에게 다가가게 된다. 이런 제주의 아름다운 것들을 소개하면서 아웃도어룩의 브랜드를 강조하고 있고 제주를 상징하는 옷차림은 찾아볼 수 없는 실정이다. 오영희 의원은 "제주관광 이미지 개선을 위해서는 해설사들의 양성교육과 근무복부터 바꿔야 한다. 관광객들에게 제주를 소개하면서 제주 정체성을 나타낼 수 있는 복장은 고민하고 있지 않다"면서 "해설사들의 근무복은 관광지별 특색을 고려하여 제주의 정체성과 이미지를 제시할 수 있어야 한다"고 도 관광국장과 세계유산본부장을 상대로 대책 마련을 주문했다. tcnews@newspim.com GAM - 해외주식 투자 도우미 [김특의 뇩멍] 스벅보다 싸고 던킨보다 맛있는 커피를 먹다 5년 새 주가 10배, 외국인이 쓸어 담는 화장품 기대주 '프로야' 라씨로 - 국내주식 투자 도우미 범한퓨얼셀, 지상 모빌리티용 연료전지 사업 확장..."글로벌 시장 확대 수혜" 코난테크놀로지, 16년 투자한 SK커뮤니케이션즈…락업 물량 20% 풀린다 [뉴스핌 베스트 기사] 사진 北 리설주, 김정은과 군사훈련 '이례적' 동행…핵무력 자신감 표출 [서울=뉴스핌] 이영태 기자 = 북한 김정은 노동당 총비서 겸 국무위원장 부인 리설주 여사가 김 위원장이 직접 지휘했다는 지난 보름간의 북한의 탄도미사일 시험발사 현장에 모습을 드러낸 것으로 10일 확인됐다. 북한 관영 조선중앙통신과 조선노동당 기관지 노동신문은 노동당 창건 77주년 기념일인 이날 "경애하는 김정은 동지께서 조선인민군 전술 핵운용 부대들의 군사훈련을 지도했다"면서 김 위원장이 북한군 전술핵운용부대·장거리포병부대·공군비행대의 훈련을 직접 지휘했다고 보도했다. 북한 김정은 국무위원장 부인 리설주 여사가 지난달 29일부터 보름간 진행된 전술핵운용부대 군사훈련을 김 위원장과 함께 참관했다고 북한 노동신문과 조선중앙통신이 10일 보도했다. 리 여사는 지난 2013년 6월과 2016년 12월 김 위원장의 공군 부대 훈련 참관에 동행한 바 있다. 2022.10.10 [사진=노동신문] 북한 언론들은 기사와 함께 리 여사가 김 위원장과 둘이서 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 사진 한 장을 공개했다. 사진은 KN-25가 점화되는 순간에 촬영된 듯 김 위원장은 왼손에 담배 한 개비를 들고 얼굴을 살짝 일그러뜨린 채 엄지손가락으로 귀를 막고 있고, 리 여사 역시 바로 옆에서 표정을 한껏 찡그리고 귀를 막는 모습을 담았다. 북한 언론이 최고지도자 부부가 귀를 막는 사진을 특별히 선택해 실은 것은 초대형 방사포 등의 위력을 강조하려는 의도가 담긴 것으로 풀이된다. 리 여사는 북한이 3대 세습 정당화로 내세운 '백두혈통'의 상징인 백두산 백마 등정으로부터 '선대 수령'의 시신이 있는 금수산태양궁전 참배, 열병식 사열 등 주요 행사 때 남편과 동행했으나, 미사일을 발사하는 군사훈련 현장에 동행한 것은 이례적이다. 전문가들 사이에선 공직을 맡고 있지 않은 리 여사의 이례적 군사훈련 참관과 동행은 북한이 자신들의 핵능력에 대한 자신감을 표출함과 동시에, 이번 도발이 단순한 '시험발사' 수준을 넘어서는 군사행보임을 보여주기 위한 것이라는 평가가 나온다. 북한은 그에게 '여사' 또는 '동지'라는 호칭을 쓰며 퍼스트레이디의 지위를 확실히 했다. medialyt@newspim.com 2022-10-10 14:04 사진 "급매물도 아직 비싸"…내집마련 수요 아직 '머뭇' [서울=뉴스핌] 최현민 기자 = 부동산 시장 침체기로 집값이 하락세를 보이자 급매물이 쏟아지고 있지만 수요자들은 내집 마련에 선뜻 나서지 못하고 있다. 문재인 정부 기간 집값이 급등한 탓에 여전히 비정상적으로 높다는 인식이 많아서다. 최근 비교적 낮은 가격에 급매물이 나오고 있지만 이들 매물 역시 5년전 가격보다 70% 가량 높은 수준이다. 특히 당시 아파트를 살수 있었던 금액으론 현재 전세살이도 힘들다. 수천만원 호가를 내린 매물들이 외면받는 이유다. 내년까지 급매물은 지속적으로 늘어날 전망이 우세하다. 점차 시장에 급매물들이 쌓일 경우 집값이 더 낮아질 것이란 기대감에 매수 심리가 더욱 위축될 것으로 보인다. 10일 부동산업계에 따르면 시세보다 저렴하게 내놓는 급매물이 증가하고 있지만 정작 내집마련 수요를 비롯한 실수요들은 '버티기'를 지속하고 있는 중이다. [서울=뉴스핌] 김학선 기자 =서울 용산구 일대 아파트 모습. 2022.08.21 yooksa@newspim.com ◆ 5년전 아파트 매매 가능했던 금액, 올해는 전세살이도 어려워 최근 주택시장에는 가격을 비교적 큰 폭으로 낮춘 급매물이 나오고 있다. 집값의 바로미터가 되는 강남4구(강남·서초·송파·강동)도 예외는 아니다. 특히 1000세대 이상 대단지 아파트에서도 수억원이나 떨어진 급매물들이 속속 나오고 있다. 강남구 일원동 지역의 아파트 매매 매물은 294건으로 6개월 전 171건에 비해 71.9% 증가했다. 같은 기간 송파구 잠실동 지역의 매물 역시 557건에서 817건으로 46.6% 증가했다. 강동구 명일동(226건→323건)은 42.9%, 서초구 방배동(481건→641건)은 33.2% 증가했다. 하지만 정작 거래는 활발하게 이뤄지지 않고 있는 모양새다. 호가를 수천만원 내린 매물도 실수요자들에게 외면받고 있다. 문재인 정권이 출범한 2017년 이후 급등한 집값이 여전히 높기 때문이다. KB부동산에 따르면 지난달 기준 전국의 아파트 평균 매매가격은 5억5601만원이다. 이는 2017년 9월(3억2936만원) 대비 68.8% 높은 수치다. 올해 들어 집값이 하락세를 보이고 있지만 여전히 5년 전 가격과 비교하면 70% 가까이 높은 수준이다. 전세가격 역시 크게 올랐다. 전국의 아파트 평균 전세값은 2017년 9월 2억4063만원에서 지난달 3억3855만원으로 40.7% 증가했다. 당시 서울 아파트를 살 수 있던 금액으로는 5년이 지난 지금 전세살이도 어려워진 것이다. 같은기간 서울만 놓고 보면 아파트 평균 매매가격은 2배 가까이 올랐다. 2017년 6억3924만원이었던 서울 아파트 평균 매매가격은 5년만에 99.6% 증가한 12억7624만원으로 급등했다. 경기와 인천 역시 같은 기간 각각 87.2%, 74.9% 증가했다. 지방 5개 광역시(대전·대구·울산·부산·광주) 아파트 평균 매매가도 증가했다. 지난달 기준 매매가격은 3억9928만원으로 2017년(2억6522만원) 대비 50.5% 증가했다. [서울=뉴스핌] 윤창빈 기자 = 서울 송파구 공인중개사에 붙어있는 아파트 매매 시세표의 모습. 2022.02.11 pangbin@newspim.com ◆ "시세 대비 크게 낮은 급매물 거래…2017년 수준 하락 어려울 것" 자금 여력을 갖춘 실수요자의 경우 급매물 거래를 통해 내 집 마련에 나설 여지가 커진 상황이다. 다만 내년까지 금리인상 가능성이 있어 시세 대비해 크게 낮아진 매물만 간간히 거래될 가능성이 크다. 여경희 부동산R114 연구원은 "내 집 마련이 급한 실수요자들이 있어 시세 대비 10% 이상 하락한 매물들 가운데 굉장히 저렴한것 위주로만 꾸준히 거래가 될 것"이라며 "다만 내년 주택 경기도 어려울 것이라고 보는 시각이 있어 절대적으로 매수세가 크게 늘진 않을 것으로 전망된다"고 내다봤다. 여 연구원은 "그동안 집값이 많이 올랐지만 대출이 여의치 않은 부분이 있다"며 "수도권 같은 경우는 조정대상지역이나 투기과열지구로 묶여 있는 지역이 있다보니 지방보다 수요는 많은데 대출은 받기 어렵고, 가격은 더 높아 매수자들 진입장벽을 높이는 요인이 될 수 있다"고 설명했다. 그러면서 "금리 인상에 물가까지 오르는 상황에서 연소득을 한푼도 안쓰고 모아야 집한채를 살 수 있는 수준이 됐다"면서 "아직까지 매수하기에는 주택 가격이 심리적으로 높다고 인식될 수 있다"고 덧붙였다. 다만 2017년도 수준 정도까지 큰 폭으로 집값이 하락하긴 어려울 것이란 전망이 나온다. 여 연구원은 "우리나라 대부분 자산이 부동산 가운데서도 주택에 집중돼있다"면서 "2017년도 수준까지 하락한다면 대출 원리금 상환이 어려워진 하우스 푸어 등 사회적으로 문제가 되는 부분이 있을 것"이라고 말했다. min72@newspim.com 2022-10-10 06:01 尹대통령 지지율, '지지층 결집'에 0.8%p 소폭 반등 32% "美증시, 이번 어닝시즌에 더 떨어진다…애플 실적이 관건" [단독] 경찰 출석하는 박홍률 목포시장...공직선거법위반 혐의 피소 삼성전자 입주한 키이우 건물, 러 미사일에 피격 삼성바이오, 이르면 내일 4공장 가동…이재용 현장 방문 가능성 [주요포토] '하이서울패션쇼, '3년 만에 직관' 법제사법위원회의 감사원 국정감사 한글날 연휴 끝...쌀쌀한 출근길 코스피 2%대 급락, 원·달러 환율 20원대 급등 노동당 77주년 창건일, 고요한 북한 '서울을 달리다' 3년만에 열린 서울세계불꽃축제 안다 TV 영상 [영상] 유병호, '대통령실 문자 논란' 첫 해명..."송구하긴 하지만 정상적 의사소통" 투자직GAM 영상 [투자직감] ①쿠팡, 미국 공모주 물림의 법칙? 회사소개 주요상품 사업제휴 개인정보취급방침 청소년보호정책 고충처리제도 수용자권익보호위원회 이용약관 광고문의 페이스북 네이버 포스트 플립보드 카카오토픽 RSS 한국신문윤리위원회 서울시 영등포구 국제금융로 70, 미원빌딩 906호 편집국 : 02-761-4409 발행인 : 민병복 편집인 : 박승윤 뉴스핌통신등록번호 : 문화,나00032등록일자 및 발행일자 : 2018.3.22 뉴스핌등록번호 : 서울아00194등록일자 및 발행일자 : 2006.4.26 COPYRIGHT©NEWSPIM CO., LTD. ALL RIGHTS RESERVED. Top으로 이동</t>
+  </si>
+  <si>
+    <t>제주도, 한국관광 데이터랩 우수 활용사례 공모전 '최우수상' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:58 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 한국관광 데이터랩 우수 활용사례 공모전 '최우수상' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 한국관광 데이터랩 우수 활용사례 공모전 '최우수상' 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2021.12.02 14:31 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도가 '2021 한국관광 데이터랩 우수 활용사례 공모전'에서 최우수상을 수상했다. 한국관광공사가 주관한 이번 공모전은 현업 우수 사례를 발굴해 관광 빅데이터 활용도를 높이고, 데이터 기반 의사결정을 지원하기 위해 마련됐다. 전국 지방자치단체·공공기관, 학술연구기관 등에서 응모한 29건을 대상으로 내용의 논리성 및 창의성, 업무 활용성 등을 기준으로 심사가 이뤄졌다. 이 결과 제주도 디지털융합과 빅데이터팀이 응모한 ‘슬로우로드 서비스를 위한 기반자료 구축’ 사례가 최우수에 선정됐다. 이 사례는 제주의 자연을 만끽하며 여행하는 우회길(슬로우로드) 안내 서비스를 구현할 수 있는 빅데이터 분석 모델을 제시하고 있다. 제주도는 이 분석 결과를 바탕으로 제주관광공사, 티맵모빌리티, 제일기획과 업무협약을 맺고 ‘목적지까지 빠른 길을 안내한다’는 길 안내 서비스의 고정관념을 깬 슬로우로드 내비게이션 서비스를 시범적으로 운영 중이다. 공공데이터 개방·품질관리 등의 업무수행을 위해 제주도에 배치된 2021년도 행정안전부 공공 빅데이터 청년인턴(일경험 수련생)들이 주도적으로 데이터 처리 및 분석 실습에 참여한 점도 특징이다. 윤형석 제주도 미래전략국장은 “빅데이터로 지역 현안을 해결하고 행정 서비스를 개선하기 위해 다양한 시도를 하고 있다”면서 “앞으로도 새로운 가치를 창출하고 양질의 공공데이터를 선보이도록 노력해 나가겠다”고 말했다.  &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 6 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>한국관광통역안내사협회, 제주도 관광통역안내사 대상 자연생태 관광교육 진행 &lt; 정보경영 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:55 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 한국관광통역안내사협회, 제주도 관광통역안내사 대상 자연생태 관광교육 진행 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정보경영 한국관광통역안내사협회, 제주도 관광통역안내사 대상 자연생태 관광교육 진행 기자명 강이정 기자 입력 2021.12.10 13:16 수정 2021.12.10 13:17 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [디스커버리뉴스=강이정 기자] 한국관광통역안내사협회가 제주 지역에서 전문적으로 활동 중인 관광통역안내사 18명을 대상으로 자연생태 관광교육을 진행했다고 10일 밝혔다. 이 교육은 지난달 22일부터 24일까지 3일 동안 스토리텔링 기반을 둔 관광지 해설기법 양성을 위해 진행 했다. 자연생태 관광을 주제로 진행한 이번 교육에 참여한 관광통역안내사들은 ‘경북 예천(회룡포, 용문사)’, ‘경북 문경(고모산성, 문경새재 도립공원, 오픈세트장, 단산 모노레일)’, ‘충북 제천(옥순봉 출렁다리, 충주호)’, ‘강원 영월(관풍헌, 청령포, 장릉, 한반도지형)’을 방문했다. 한국관광통역안내사협회는 현장 실습과 체험 교육 등을 진행하면서 관광통역안내사로서 자질 향상과 더불어 더욱 성장할 수 있는 계기를 마련했으며, 교육 참여자들은 안전을 위해 마스크 착용과 체온 검사, 손 소독제 사용 및 사회적 거리두기 등을 실천했다. 한국관광통역안내사협회는 문화체육관광부 인가 비영리법인으로, 관광통역안내사는 관광진흥법에 근거하여 우리나라 역사와 문화를 올바르게 알리고 나누며, 세계와 소통하고 있다. 강이정 기자 discoverynews8@discoverynews.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주관광 권역별 현장홍보 강화 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 제주관광 권역별 현장홍보 강화 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 제주관광 권역별 현장홍보 강화 김지우 기자 승인 2021.12.12 13:22 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 부동석)는 서울, 부산, 광주 등 권역별 중심 도시에서 공격적인 홍보마케팅을 추진한다고 12일 밝혔다. 이를 통해 제주관광 브랜드 위상을 높이고 관광객을 유치한다는 방침이다. 이에 따라 제주도관광협회는 지난 11일 경기 남부지역의 롯데몰 광명점에서 관광객 유치를 위한 제주관광 현장 홍보를 진행했다. 단계적 일상회복에 따른 여행 갈증을 해소하고 제주에 대한 관심도 및 잠재수요 제고를 위해 진행된 이번 행사는 접종완료자 등 방역패스 의무 적용을 통한 사전 예약제로 운영됐다. 온라인 제주여행 공공플랫폼 탐나오 신규 가입고객을 대상으로 ‘나만의 제주도 머그컵 만들기’ 체험 이벤트와 제주의 맛을 느낄 수 있는 감귤 타르트를 함께 증정해 관람객의 호응을 얻었다. 또 제주여행 공공플랫폼 탐나오를 통해 위드 코로나 시대 안전한 제주 여행, 제주 겨울 핫플레이스를 중점적으로 홍보하고 도내 관광사업체 및 제주감귤따기 체험, 제주시티투어버스 야간테마 2코스 등 다양한 제주관광 정보를 제공했다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주선수단, 전국체육대회 메달 목표 달성 3제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도의회, 위드코로나로 변화하는 관광시장에 맞는 예산 편성 주문 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 카카오채널 RSS 모바일보기 맑음서울 15.0℃ 구름조금제주 19.7℃ 구름많음고산 16.7℃ 구름조금성산 17.9℃ 구름많음서귀포 19.7℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회, 위드코로나로 변화하는 관광시장에 맞는 예산 편성 주문 서유주 기자 news@jejutwn.com 등록 2021.12.01 15:19:28 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 [제주교통복지신문 서유주 기자] 제주도의회 문화관광체육위원회 오영희 의원(국민의힘, 비례대표)은 제400회 제주도의회 정례회 상임위 3차 회의에서 관광국장을 상대로“위드코로나로 변화하는 관광시장에 선제적 대응 준비에 맞는 예산 편성이 될 수 있도록 노력해달라”고 강조했다. 특히, 2022년도 예산안에 관광국이 위드코로나에 맞춘 예산의 방향인지를 점검하고, 기존 편성된 마케팅 사업과 유관기관 간 연계사업 추진에 관광국이 컨트롤 역할을 해야 하는 부분에 맞는지 초점을 두고 살펴보라고 주문했으며, 최근 사회적 거리두기 완화 조치와 변이바이러스 급증으로 도민들은 기대 및 우려 등 혼란한 상황임을 잘 감지하여 항공, 교통, 숙박, 관광지 등 대응태세 및 방역대책까지 어떻게 연계할지도 노력해달라고 했다. 오영희 의원은 “코로나 상황에서 제주관광 소비는 2021년 상반기 1조 3093억 원으로 전년 동기 대비 55.2% 증가를 하면서 회복세를 보이고 있지만 위드코로나로 관광패턴이 비대면 소규모로 변화하면서 일부 업종은 호황을 누린 반면, 경영난을 겪으며 휴폐업하는 업종도 증가해 특정업종에 편중되고 있다”고 지적하면서 :균형있는 예산 편성을 할 수 있도록 주문했다. 제주 고용동향도 지난 6월 제주연구원 발표자료를 인용하면서 고용변화 유형은 ‘해고’가 46.1%로 가장 많았고, 이어 ‘무급·유급 휴직’(18%), ‘교대근무 전환’(10.1%) 순으로 나타나고 있으며, 해고가 가장 많은 업종은 ‘도·소매업’(66.7%)이고, ‘예술·스포츠·여가 관련 서비스업’(50%)으로 나타나고 있다고 설명했다. 제주도가 고용 안정과 일자리 창출을 위해 우선 해결해야 할 과제로 응답 업체의 65.3%가 고용유지지원금 확대를 꼽고 있는 만큼, 내년 예산 편성에도 신중을 기해 달라고 당부했다. 오영희의원은 신규자체 사업 중심으로 예산을 점검하면서 특히, ‘뉴노멀시대 제주관광대비 안심·안전 환경 조성’, ‘우수 방역국가 간 안심방역 여행상품 지원 사업’. ‘해외 관광객 특수목적 체험여행 테마발굴’, ‘온라인 해외 제주관광전문가 양성과정 운영’등에 적극적으로 지원해 달라고 했다. 이와 더불어 국제관광시장 재개에 따른 유기적 대응 및 선제적 마케팅 추진의 필요성을 강조했으며, 싱가포르 트래블 버블 등 국제관광재개에 따른 동남아 등 홍보마케팅 강화 사업 등에도 예산 편성이 적절하게 편성될 수 있도록 당부했다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 2 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 3 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 4 제주특별자치도, 11일부터 코로나19 2가백신 동절기 추가접종 시작 5 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 6 서귀포시 동부보건소, 가을철 농작업 및 야외활동 시 진드기 조심하세요! 7 제주시, 6.25 참전유공자 유족 무성화랑 무공훈장 수여 8 제주시, 오는 11월 24일부터 '일회용' 종이컵·빨대 등 제공 및 사용 금지한다 9 한국미술협회 서귀포지부, 2022 회원 정기전 진행 10 제주시 한경도서관, '냅킨 아트 소품 클래스' 프로그램 참여자 선착순 모집 실시간 뉴스 2022-10-11_TUE 서귀포시, 사무관 승진의결자 8명 승진임용 11:33 서귀포시, 문화재 관련 공직자 역량 강화 교육 실시 11:32 서귀포시 성산읍, 가로등에 디자인을 입혀 불법광고물을 뿌리 뽑는다 11:31 서귀포시, 다양한 국가의 진로 탐색으로 청소년의 꿈의 시야를 넓히다. 11:30 서귀포시, 2022년 하반기 주민등록 사실조사 실시 11:26 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 11일 14시 57분 최상단으로</t>
+  </si>
+  <si>
+    <t>[대구 코로나 현황] 신규 확진자 160명… 제주도 단체관광 등 menu 신규 확진자 160명… 제주도 단체관광 등 search add_circle close 정치 국회·정당 정치일반 대통령실·총리실 북한 외교·통일 국방 기자수첩 English News 경제 경제일반 기업·산업 IT·전자·과학 건설·부동산 금융·증시 자동차 유통 방송·통신 정책 기자수첩 English News 국제 국제일반 국제HOT뉴스 기자수첩 한줄로 보는 오늘 지구촌 Global Opinion 국제인사이드 English News 사회 사회일반 사건·사고 법원·검찰·경찰 교육·캠퍼스 노동·인권·여성 행정자치 식품·농수산 보건·복지·의료 환경·날씨 피플 교통 보훈 언론·미디어 기자수첩 English News 문화 전체 문화일반 단독 전통문화 문화재 만화 박물관 기자수첩 OTT·방송 공연·전시 문화인 영화 책마당 English News 종교 전체 개신교 천주교 불교 민족종교 세계종교 종단연합 기자수첩 종교인 종교문화 종교오피니언 English News 연예 가요 연예가 화제 연예일반 스타⭐ 천지라인⭐ 방송·TV 핫이슈 기자수첩 English News 스포츠 스포츠일반 축구 야구 골프 e-스포츠 배구 농구 바둑 기자수첩 English News 전국 서울 인천/경기 대전/세종 충청 광주/전남/전북 대구/경북 부산/울산/경남 강원 제주 기자수첩 English News 글마루 역사 종교 문화 기타 마루대문 천지매거진 기자수첩 English News 라이프 PR광장 패션·뷰티 교육·출판 육아 리빙 식품 웨딩 게임 여가·여행 공연·축제·박람회 컴퓨터·휴대폰·IT 창업·프랜차이즈 캠페인 부동산 English News 웰빙건강 의학정보 힐링정보 English News 비주얼뉴스 카드뉴스 English News 포토ZONE 전체 정치 경제 국제 사회 문화 종교 연예 스포츠 전국 글마루 라이프 웰빙건강 비주얼뉴스 특집 유통 대학 공기업 금융 기업 통신 자동차 English News 오피니언 천지시론 칼럼 사설 투고 ·기고 기자수첩 만평 시사카툰 가로세로 퀴즈 English News 기획 특별기획 정치기획 경제기획 사회기획 문화기획 종교기획 전국기획 기자수첩 English News 천지TV 전체 정치 경제 사회 문화 종교 연예 스포츠 오피니언 기획 English News 이용안내 신문사소개 구독신청 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 고충처리제도 RSS 전국 대구/경북 [대구 코로나 현황] 신규 확진자 160명… 제주도 단체관광 등 송해인 기자 승인 2021-12-17 16:58 이 기사를 공유합니다. close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 [천지일보 대구=송해인 기자] 16일 오후 대구시 중구 국채보상공원에 설치된 임시선별검사소에서 시민들이 코로나19 검사를 받기 위해 대기하고 있다. ⓒ천지일보 2021.12.16 [천지일보 대구=송해인 기자] 대구에서 신종 코로나바이러스 감염증(코로나19) 신규 확진자가 160명 발생했다. 이날 신규 확진자 중에는 제주도 단체관광을 다녀온 친목 모임 2개팀에서 감염자가 나왔다. 신규 확진자 중 11명은 대구에서 제주도 관광을 다녀온 60~70대 어르신들이다. 이들은 지난 6~9일까지 2개 팀이 제주도 관광을 다녀온 후 1명이 확진돼 일행들을 검사한 결과 추가 확진자가 나왔다. 17일 대구시 재난안전대책본부에 따르면 이날 0시 기준 코로나19 신규 확진자는 160명으로 누적 확진자는 2만 1167명(지역감염 2만 822명, 해외유입 345명)이다. 서구 소재 목욕 시설 관련 12명이 확진돼 누적 확진자는 74명으로 늘었다. 북구 소재 교회 관련 4명(누적 51명), 북구 소재 병원 관련 2명(누적 42명), 달서구 소재 의료기관 관련 2명(누적 31명), 중구 소재 목욕탕 관련으로 2명(누적 19명)이 추가 확진됐다. 수성구 일가족 관련으로 7명, 북구 일가족 관련 4명, 달서구 일가족 관련 4명, 타지역 확진자의 접촉자로 9명이 확진 판정을 받았다. 기타 확진자의 접촉자로 64명이며, 해외유입은 영국·베트남에서 입국한 2명이 확진됐다. 대구 방역당국은 감염원을 조사 중인 확진자 34명의 감염원 확인을 위해 의료기관 이용력, 출입국 기록, 휴대폰 위치정보, 카드사용 내역 확인 등 역학조사를 진행하고 있다. 현재 대구에서 격리 치료 중인 확진자는 1553명이며, 지역 내외 병원과 생활치료센터 등에서 입원 치료 중이다. 송해인 기자 ssong2182@newscj.com 다른기사 보기 #천지일보#코로나바이러스#감염증#코로나19#단체관광#감염자#확진자#접촉자 저작권자 © 천지일보 - 새 시대 희망언론 무단전재 및 재배포 금지 기사제보 지면구독신청 댓글 로그인 후 이용해주시기 바랍니다. 최신순 추천순 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 천지TV 영상송출채널 바로가기 천지오피니언 전체 천지시론 사설 칼럼 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산(下) 사설 방역당국, 심상치 않은 코로나·독감 ‘트윈데믹’에 적극 대처해야 사설 무주 일가족 가스 중독 참사, 막을 길 없었나 가로세로 퀴즈 가로세로 낱말 퀴즈&lt;37&gt;, &lt;36&gt; 답 및 당첨자 발표 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산(下) 천지시론 ‘전쟁과 평화’… 전쟁은 선천(先天)의 유물, 평화는 후천(後天)의 영원한 유산 천지시론 송구영신(送舊迎新)… 선천(先天) 종말과 후천(後天) 재창조 천지시론 해가 지지 않는 나라?… 이제 해가 졌고, ‘의로운 해(熙)’가 떠올라 사설 방역당국, 심상치 않은 코로나·독감 ‘트윈데믹’에 적극 대처해야 사설 무주 일가족 가스 중독 참사, 막을 길 없었나 사설 한국은행 빅스텝 결단은 과감해야 한다 사설 국정감사 이제부터라도 민생이 필요하다 칼럼 원자력발전 친환경 맞나 칼럼 연예인들이여, 성인이 됐으면 경제적으로 독립해야 한다 칼럼 국가안보는 국가존립의 핵심 칼럼 미국, 중국반도체 자립 자극 더했다 기획 [국감 말말말①] “혀 깨물고 죽지” “니나 가만히 계세요” [정치인사이드] ‘윤석열차’로 촉발된 대통령 풍자 논란… 과거 정부 땐 어땠나 [현대이야기&lt;22&gt;] 걸면 걸리는 ‘걸리버’ 기억 나시나요?… 추억이 된 현대전자 신문사소개 기사제보 광고/제휴문의 구독신청 저작권문의/구매 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS (주)천지일보등록번호 : 서울 아00902등록일자 : 2009년 7월 1일제호 : 천지일보발행·편집인 : 이상면발행소 : 서울특별시 용산구 청파로89길 31 코레일유통 빌딩 3~5층발행일자 : 2009년 9월 1일전화번호 : 1644-7533청소년보호책임자 : 황금중사업자등록번호 : 106-86-65571통신판매업신고번호 : 2013-서울용산-00392대표자 : 이상면 「열린보도원칙」천지일보는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 강은영 02-1644-7533 newscj@newscj.com Copyright © 천지일보 - 새 시대 희망언론.  All rights reserved. mail to newscj@newscj.com</t>
+  </si>
+  <si>
+    <t>제주도, 올 하반기 우수관광사업체 지정 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 올 하반기 우수관광사업체 지정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 올 하반기 우수관광사업체 지정 현대성 기자 승인 2021.12.01 15:51 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 1일 올 하반기 우수관광사업체로 12개 업체를 지정했다. 올 하반기 우수관광사업체는 ▲상효원 ▲제주민속촌 ▲다이나믹 메이즈 ▲삼성혈 ▲메이즈랜드 ▲제주레일파크 등 관광지 6곳 ▲드림고속 ▲중앙우등관광 등 교통업체 2곳 ▲제주속으로 등 여행업 1곳 ▲제주도그릴 ▲자매국수 ▲흑돈가 등 음식업소 3곳이다. 제주도는 도내 관광사업체 경쟁력 강화를 위해 매년 상·하반기 우수관광사업체를 지정하고 있다. 12개 업체에는 우수관광사업체 지정서 및 인증패가 수여되며, 홍보지원금 80만원이 지급된다. 우수관광사업체 지정 기간은 2년이다. 김승배 제주도 관광국장은 “단계적 일상회복에 따른 관광객 증가에 맞춰 우수한 관광사업체를 꾸준히 발굴해 나가겠다”고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주선수단, 전국체육대회 메달 목표 달성 3제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -434,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,6 +512,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -464,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -485,9 +545,6 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -497,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +609,114 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
